--- a/projects/cs2200-project-1/microcode/microcode.xlsx
+++ b/projects/cs2200-project-1/microcode/microcode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bijan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruh\Documents\GT\Fall 2023\CS_2200\projects\cs2200-project-1\microcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B97188B-524F-6A48-A6CB-F8CA8ADADB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9C16C7-1693-4ABF-8E42-5A1A0CEB7F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="500" windowWidth="34560" windowHeight="19600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
   <si>
     <t>Index</t>
   </si>
@@ -200,14 +200,116 @@
     <t>ALU[1]</t>
   </si>
   <si>
-    <t>example</t>
+    <t>ifetch1</t>
+  </si>
+  <si>
+    <t>ifetch2</t>
+  </si>
+  <si>
+    <t>ifetch3</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>ADDI</t>
+  </si>
+  <si>
+    <t>NAND</t>
+  </si>
+  <si>
+    <t>LW</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>JALR</t>
+  </si>
+  <si>
+    <t>HALT</t>
+  </si>
+  <si>
+    <t>BLT</t>
+  </si>
+  <si>
+    <t>LEA</t>
+  </si>
+  <si>
+    <t>BGT</t>
+  </si>
+  <si>
+    <t>BEQ</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>XOR</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>0011</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>0110</t>
+  </si>
+  <si>
+    <t>0111</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>ADD</t>
+  </si>
+  <si>
+    <t>add1</t>
+  </si>
+  <si>
+    <t>add2</t>
+  </si>
+  <si>
+    <t>add3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -571,49 +673,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -653,20 +713,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -890,31 +936,31 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
+      <selection pane="bottomLeft" activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="3" max="7" width="2.6640625" customWidth="1"/>
-    <col min="8" max="8" width="2.33203125" customWidth="1"/>
-    <col min="9" max="28" width="9.1640625" customWidth="1"/>
-    <col min="29" max="29" width="7.6640625" customWidth="1"/>
-    <col min="30" max="31" width="4.6640625" customWidth="1"/>
-    <col min="32" max="32" width="11.6640625" customWidth="1"/>
-    <col min="33" max="33" width="27.6640625" customWidth="1"/>
-    <col min="34" max="34" width="10.1640625" customWidth="1"/>
-    <col min="35" max="37" width="7.6640625" customWidth="1"/>
-    <col min="38" max="38" width="13.1640625" customWidth="1"/>
-    <col min="39" max="39" width="15.1640625" customWidth="1"/>
-    <col min="40" max="40" width="7.6640625" customWidth="1"/>
-    <col min="41" max="41" width="10.6640625" customWidth="1"/>
-    <col min="42" max="42" width="7.6640625" customWidth="1"/>
-    <col min="43" max="1027" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.69921875" customWidth="1"/>
+    <col min="2" max="2" width="14.796875" customWidth="1"/>
+    <col min="3" max="7" width="2.69921875" customWidth="1"/>
+    <col min="8" max="8" width="2.296875" customWidth="1"/>
+    <col min="9" max="28" width="9.19921875" customWidth="1"/>
+    <col min="29" max="29" width="7.69921875" customWidth="1"/>
+    <col min="30" max="31" width="4.69921875" customWidth="1"/>
+    <col min="32" max="32" width="11.69921875" customWidth="1"/>
+    <col min="33" max="33" width="27.69921875" customWidth="1"/>
+    <col min="34" max="34" width="10.19921875" customWidth="1"/>
+    <col min="35" max="37" width="7.69921875" customWidth="1"/>
+    <col min="38" max="38" width="13.19921875" customWidth="1"/>
+    <col min="39" max="39" width="15.19921875" customWidth="1"/>
+    <col min="40" max="40" width="7.69921875" customWidth="1"/>
+    <col min="41" max="41" width="10.69921875" customWidth="1"/>
+    <col min="42" max="42" width="7.69921875" customWidth="1"/>
+    <col min="43" max="1027" width="12.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42" ht="30.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1010,7 +1056,7 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
     </row>
-    <row r="2" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42" ht="14.25" customHeight="1">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -1018,56 +1064,56 @@
         <v>37</v>
       </c>
       <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
         <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
       </c>
       <c r="I2" s="5">
         <f t="shared" ref="I2" si="0">BIN2DEC(_xlfn.CONCAT(C2:H2))</f>
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
         <v>1</v>
       </c>
-      <c r="K2" s="2">
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
         <v>1</v>
       </c>
-      <c r="L2" s="2">
+      <c r="S2" s="2">
         <v>1</v>
-      </c>
-      <c r="M2" s="2">
-        <v>1</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0</v>
-      </c>
-      <c r="P2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0</v>
-      </c>
-      <c r="R2" s="2">
-        <v>0</v>
-      </c>
-      <c r="S2" s="2">
-        <v>0</v>
       </c>
       <c r="T2" s="2">
         <v>0</v>
@@ -1103,14 +1149,16 @@
       <c r="AE2" s="4"/>
       <c r="AF2" s="7" t="str">
         <f>_xlfn.CONCAT(     BIN2HEX(_xlfn.CONCAT(AC2, AB2),1),     BIN2HEX(_xlfn.CONCAT(AA2,Z2,Y2, X2),1),     BIN2HEX(_xlfn.CONCAT(W2,V2,U2, T2),1),     BIN2HEX(_xlfn.CONCAT(S2,R2,Q2, P2),1),     BIN2HEX(_xlfn.CONCAT(O2,N2, M2, L2),1),     BIN2HEX(_xlfn.CONCAT(K2,J2,C2,D2),1),     BIN2HEX(_xlfn.CONCAT(E2,F2,G2,H2),1) )</f>
-        <v>00003F8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>000C401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" ht="14.25" customHeight="1">
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="C3" s="2">
         <v>0</v>
       </c>
@@ -1124,20 +1172,20 @@
         <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
       </c>
       <c r="I3" s="5">
-        <f t="shared" ref="I2:I49" si="1">BIN2DEC(_xlfn.CONCAT(C3:H3))</f>
-        <v>0</v>
+        <f t="shared" ref="I3:I49" si="1">BIN2DEC(_xlfn.CONCAT(C3:H3))</f>
+        <v>2</v>
       </c>
       <c r="J3" s="2">
         <v>0</v>
       </c>
       <c r="K3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="2">
         <v>0</v>
@@ -1155,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="Q3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="2">
         <v>0</v>
@@ -1197,19 +1245,21 @@
       <c r="AE3" s="4"/>
       <c r="AF3" s="7" t="str">
         <f t="shared" ref="AF3:AF49" si="2">_xlfn.CONCAT(     BIN2HEX(_xlfn.CONCAT(AC3, AB3),1),     BIN2HEX(_xlfn.CONCAT(AA3,Z3,Y3, X3),1),     BIN2HEX(_xlfn.CONCAT(W3,V3,U3, T3),1),     BIN2HEX(_xlfn.CONCAT(S3,R3,Q3, P3),1),     BIN2HEX(_xlfn.CONCAT(O3,N3, M3, L3),1),     BIN2HEX(_xlfn.CONCAT(K3,J3,C3,D3),1),     BIN2HEX(_xlfn.CONCAT(E3,F3,G3,H3),1) )</f>
-        <v>0000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0002082</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" ht="14.25" customHeight="1">
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="17" t="s">
+        <v>39</v>
+      </c>
       <c r="C4" s="2">
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -1225,7 +1275,7 @@
       </c>
       <c r="I4" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
@@ -1234,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
@@ -1246,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -1276,13 +1326,13 @@
         <v>0</v>
       </c>
       <c r="Z4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4" s="18">
         <v>0</v>
@@ -1291,15 +1341,17 @@
       <c r="AE4" s="4"/>
       <c r="AF4" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1C01110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" ht="14.25" customHeight="1">
       <c r="A5" s="4">
         <f t="shared" ref="A5:A49" si="3">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="C5" s="2">
         <v>0</v>
       </c>
@@ -1310,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -1320,10 +1372,10 @@
       </c>
       <c r="I5" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
@@ -1350,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="S5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" s="2">
         <v>0</v>
@@ -1368,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="Y5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5" s="2">
         <v>0</v>
@@ -1386,15 +1438,17 @@
       <c r="AE5" s="4"/>
       <c r="AF5" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0208044</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" ht="14.25" customHeight="1">
       <c r="A6" s="4">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="C6" s="2">
         <v>0</v>
       </c>
@@ -1405,20 +1459,20 @@
         <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
@@ -1448,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
@@ -1460,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="X6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="2">
         <v>0</v>
@@ -1481,15 +1535,17 @@
       <c r="AE6" s="4"/>
       <c r="AF6" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0110045</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" ht="14.25" customHeight="1">
       <c r="A7" s="4">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="C7" s="2">
         <v>0</v>
       </c>
@@ -1519,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
@@ -1549,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="V7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="2">
         <v>0</v>
@@ -1576,10 +1632,10 @@
       <c r="AE7" s="4"/>
       <c r="AF7" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0040100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" ht="14.25" customHeight="1">
       <c r="A8" s="4">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -1674,7 +1730,7 @@
         <v>0000000</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:42" ht="14.25" customHeight="1">
       <c r="A9" s="4">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -1769,7 +1825,7 @@
         <v>0000000</v>
       </c>
     </row>
-    <row r="10" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:42" ht="14.25" customHeight="1">
       <c r="A10" s="4">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -1864,7 +1920,7 @@
         <v>0000000</v>
       </c>
     </row>
-    <row r="11" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:42" ht="14.25" customHeight="1">
       <c r="A11" s="4">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -1959,7 +2015,7 @@
         <v>0000000</v>
       </c>
     </row>
-    <row r="12" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:42" ht="14.25" customHeight="1">
       <c r="A12" s="4">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -2054,7 +2110,7 @@
         <v>0000000</v>
       </c>
     </row>
-    <row r="13" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:42" ht="14.25" customHeight="1">
       <c r="A13" s="4">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -2149,7 +2205,7 @@
         <v>0000000</v>
       </c>
     </row>
-    <row r="14" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:42" ht="14.25" customHeight="1">
       <c r="A14" s="4">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -2244,7 +2300,7 @@
         <v>0000000</v>
       </c>
     </row>
-    <row r="15" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:42" ht="14.25" customHeight="1">
       <c r="A15" s="4">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -2339,7 +2395,7 @@
         <v>0000000</v>
       </c>
     </row>
-    <row r="16" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:42" ht="14.25" customHeight="1">
       <c r="A16" s="4">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -2434,7 +2490,7 @@
         <v>0000000</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" ht="14.25" customHeight="1">
       <c r="A17" s="4">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -2529,7 +2585,7 @@
         <v>0000000</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" ht="14.25" customHeight="1">
       <c r="A18" s="4">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -2624,7 +2680,7 @@
         <v>0000000</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" ht="14.25" customHeight="1">
       <c r="A19" s="4">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -2719,7 +2775,7 @@
         <v>0000000</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" ht="14.25" customHeight="1">
       <c r="A20" s="4">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -2814,7 +2870,7 @@
         <v>0000000</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" ht="14.25" customHeight="1">
       <c r="A21" s="4">
         <f t="shared" si="3"/>
         <v>19</v>
@@ -2909,7 +2965,7 @@
         <v>0000000</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" ht="14.25" customHeight="1">
       <c r="A22" s="4">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -3004,7 +3060,7 @@
         <v>0000000</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" ht="14.25" customHeight="1">
       <c r="A23" s="4">
         <f t="shared" si="3"/>
         <v>21</v>
@@ -3099,7 +3155,7 @@
         <v>0000000</v>
       </c>
     </row>
-    <row r="24" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" ht="14.25" customHeight="1">
       <c r="A24" s="4">
         <f t="shared" si="3"/>
         <v>22</v>
@@ -3194,7 +3250,7 @@
         <v>0000000</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" ht="14.25" customHeight="1">
       <c r="A25" s="4">
         <f t="shared" si="3"/>
         <v>23</v>
@@ -3289,7 +3345,7 @@
         <v>0000000</v>
       </c>
     </row>
-    <row r="26" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" ht="14.25" customHeight="1">
       <c r="A26" s="4">
         <f t="shared" si="3"/>
         <v>24</v>
@@ -3384,7 +3440,7 @@
         <v>0000000</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" ht="14.25" customHeight="1">
       <c r="A27" s="4">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -3479,7 +3535,7 @@
         <v>0000000</v>
       </c>
     </row>
-    <row r="28" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" ht="14.25" customHeight="1">
       <c r="A28" s="4">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3574,7 +3630,7 @@
         <v>0000000</v>
       </c>
     </row>
-    <row r="29" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" ht="14.25" customHeight="1">
       <c r="A29" s="4">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3669,7 +3725,7 @@
         <v>0000000</v>
       </c>
     </row>
-    <row r="30" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" ht="14.25" customHeight="1">
       <c r="A30" s="4">
         <f t="shared" si="3"/>
         <v>28</v>
@@ -3764,7 +3820,7 @@
         <v>0000000</v>
       </c>
     </row>
-    <row r="31" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" ht="14.25" customHeight="1">
       <c r="A31" s="4">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -3859,7 +3915,7 @@
         <v>0000000</v>
       </c>
     </row>
-    <row r="32" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" ht="14.25" customHeight="1">
       <c r="A32" s="4">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -3954,7 +4010,7 @@
         <v>0000000</v>
       </c>
     </row>
-    <row r="33" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:33" ht="14.25" customHeight="1">
       <c r="A33" s="4">
         <f t="shared" si="3"/>
         <v>31</v>
@@ -4049,7 +4105,7 @@
         <v>0000000</v>
       </c>
     </row>
-    <row r="34" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:33" ht="14.25" customHeight="1">
       <c r="A34" s="4">
         <f t="shared" si="3"/>
         <v>32</v>
@@ -4144,7 +4200,7 @@
         <v>0000000</v>
       </c>
     </row>
-    <row r="35" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:33" ht="14.25" customHeight="1">
       <c r="A35" s="4">
         <f t="shared" si="3"/>
         <v>33</v>
@@ -4239,7 +4295,7 @@
         <v>0000000</v>
       </c>
     </row>
-    <row r="36" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:33" ht="14.25" customHeight="1">
       <c r="A36" s="4">
         <f t="shared" si="3"/>
         <v>34</v>
@@ -4334,7 +4390,7 @@
         <v>0000000</v>
       </c>
     </row>
-    <row r="37" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:33" ht="14.25" customHeight="1">
       <c r="A37" s="4">
         <f t="shared" si="3"/>
         <v>35</v>
@@ -4429,7 +4485,7 @@
         <v>0000000</v>
       </c>
     </row>
-    <row r="38" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:33" ht="14.25" customHeight="1">
       <c r="A38" s="4">
         <f t="shared" si="3"/>
         <v>36</v>
@@ -4524,7 +4580,7 @@
         <v>0000000</v>
       </c>
     </row>
-    <row r="39" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:33" ht="14.25" customHeight="1">
       <c r="A39" s="4">
         <f t="shared" si="3"/>
         <v>37</v>
@@ -4622,7 +4678,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:33" ht="14.25" customHeight="1">
       <c r="A40" s="4">
         <f t="shared" si="3"/>
         <v>38</v>
@@ -4717,7 +4773,7 @@
         <v>0000000</v>
       </c>
     </row>
-    <row r="41" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:33" ht="14.25" customHeight="1">
       <c r="A41" s="4">
         <f t="shared" si="3"/>
         <v>39</v>
@@ -4812,7 +4868,7 @@
         <v>0000000</v>
       </c>
     </row>
-    <row r="42" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:33" ht="14.25" customHeight="1">
       <c r="A42" s="4">
         <f t="shared" si="3"/>
         <v>40</v>
@@ -4907,7 +4963,7 @@
         <v>0000000</v>
       </c>
     </row>
-    <row r="43" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:33" ht="14.25" customHeight="1">
       <c r="A43" s="4">
         <f t="shared" si="3"/>
         <v>41</v>
@@ -5002,7 +5058,7 @@
         <v>0000000</v>
       </c>
     </row>
-    <row r="44" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:33" ht="14.25" customHeight="1">
       <c r="A44" s="4">
         <f t="shared" si="3"/>
         <v>42</v>
@@ -5097,7 +5153,7 @@
         <v>0000000</v>
       </c>
     </row>
-    <row r="45" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:33" ht="14.25" customHeight="1">
       <c r="A45" s="4">
         <f t="shared" si="3"/>
         <v>43</v>
@@ -5192,7 +5248,7 @@
         <v>0000000</v>
       </c>
     </row>
-    <row r="46" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:33" ht="14.25" customHeight="1">
       <c r="A46" s="4">
         <f t="shared" si="3"/>
         <v>44</v>
@@ -5287,7 +5343,7 @@
         <v>0000000</v>
       </c>
     </row>
-    <row r="47" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:33" ht="14.25" customHeight="1">
       <c r="A47" s="4">
         <f t="shared" si="3"/>
         <v>45</v>
@@ -5382,7 +5438,7 @@
         <v>0000000</v>
       </c>
     </row>
-    <row r="48" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:33" ht="14.25" customHeight="1">
       <c r="A48" s="4">
         <f t="shared" si="3"/>
         <v>46</v>
@@ -5477,7 +5533,7 @@
         <v>0000000</v>
       </c>
     </row>
-    <row r="49" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:40" ht="14.25" customHeight="1">
       <c r="A49" s="4">
         <f t="shared" si="3"/>
         <v>47</v>
@@ -5572,15 +5628,15 @@
         <v>0000000</v>
       </c>
     </row>
-    <row r="50" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:40" ht="14.25" customHeight="1">
       <c r="AH50" s="1"/>
     </row>
-    <row r="51" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:40" ht="14.25" customHeight="1"/>
+    <row r="52" spans="1:40" ht="14.25" customHeight="1">
       <c r="AD52" s="4"/>
       <c r="AE52" s="4"/>
     </row>
-    <row r="53" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:40" ht="14.25" customHeight="1">
       <c r="B53" s="34" t="s">
         <v>22</v>
       </c>
@@ -5624,7 +5680,7 @@
       <c r="AM53" s="8"/>
       <c r="AN53" s="8"/>
     </row>
-    <row r="54" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:40" ht="14.25" customHeight="1">
       <c r="B54" s="9" t="s">
         <v>24</v>
       </c>
@@ -5678,9 +5734,13 @@
       <c r="AM54" s="8"/>
       <c r="AN54" s="8"/>
     </row>
-    <row r="55" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="21"/>
-      <c r="C55" s="36"/>
+    <row r="55" spans="1:40" ht="14.25" customHeight="1">
+      <c r="B55" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="D55" s="36"/>
       <c r="E55" s="36"/>
       <c r="F55" s="36"/>
@@ -5691,12 +5751,18 @@
         <f>DEC2HEX(C55)</f>
         <v>0</v>
       </c>
-      <c r="M55" s="12"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="4"/>
+      <c r="M55" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="N55" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="O55" s="4">
+        <v>3</v>
+      </c>
       <c r="P55" s="11" t="str">
         <f t="shared" ref="P55:P70" si="4">DEC2HEX(O55,2)</f>
-        <v>00</v>
+        <v>03</v>
       </c>
       <c r="R55" s="31"/>
       <c r="S55" s="31"/>
@@ -5722,9 +5788,13 @@
       <c r="AM55" s="8"/>
       <c r="AN55" s="8"/>
     </row>
-    <row r="56" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="22"/>
-      <c r="C56" s="30"/>
+    <row r="56" spans="1:40" ht="14.25" customHeight="1">
+      <c r="B56" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>41</v>
+      </c>
       <c r="D56" s="30"/>
       <c r="E56" s="30"/>
       <c r="F56" s="30"/>
@@ -5733,10 +5803,14 @@
       <c r="I56" s="14"/>
       <c r="J56" s="15" t="str">
         <f>DEC2HEX(C56)</f>
-        <v>0</v>
-      </c>
-      <c r="M56" s="12"/>
-      <c r="N56" s="13"/>
+        <v>B</v>
+      </c>
+      <c r="M56" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="N56" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="O56" s="4"/>
       <c r="P56" s="11" t="str">
         <f t="shared" si="4"/>
@@ -5766,9 +5840,13 @@
       <c r="AM56" s="8"/>
       <c r="AN56" s="8"/>
     </row>
-    <row r="57" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M57" s="12"/>
-      <c r="N57" s="13"/>
+    <row r="57" spans="1:40" ht="14.25" customHeight="1">
+      <c r="M57" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N57" s="13" t="s">
+        <v>46</v>
+      </c>
       <c r="O57" s="4"/>
       <c r="P57" s="11" t="str">
         <f t="shared" si="4"/>
@@ -5784,9 +5862,13 @@
       <c r="AJ57" s="2"/>
       <c r="AK57" s="2"/>
     </row>
-    <row r="58" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M58" s="12"/>
-      <c r="N58" s="13"/>
+    <row r="58" spans="1:40" ht="14.25" customHeight="1">
+      <c r="M58" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="N58" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="O58" s="4"/>
       <c r="P58" s="11" t="str">
         <f t="shared" si="4"/>
@@ -5802,18 +5884,26 @@
       <c r="AK58" s="2"/>
       <c r="AL58" s="4"/>
     </row>
-    <row r="59" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M59" s="12"/>
-      <c r="N59" s="13"/>
+    <row r="59" spans="1:40" ht="14.25" customHeight="1">
+      <c r="M59" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N59" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="O59" s="4"/>
       <c r="P59" s="11" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="60" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M60" s="12"/>
-      <c r="N60" s="13"/>
+    <row r="60" spans="1:40" ht="14.25" customHeight="1">
+      <c r="M60" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="N60" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="O60" s="4"/>
       <c r="P60" s="11" t="str">
         <f t="shared" si="4"/>
@@ -5827,9 +5917,13 @@
       <c r="U60" s="32"/>
       <c r="V60" s="32"/>
     </row>
-    <row r="61" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M61" s="12"/>
-      <c r="N61" s="13"/>
+    <row r="61" spans="1:40" ht="14.25" customHeight="1">
+      <c r="M61" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="N61" s="13" t="s">
+        <v>63</v>
+      </c>
       <c r="O61" s="4"/>
       <c r="P61" s="11" t="str">
         <f t="shared" si="4"/>
@@ -5841,9 +5935,13 @@
       <c r="U61" s="32"/>
       <c r="V61" s="32"/>
     </row>
-    <row r="62" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M62" s="12"/>
-      <c r="N62" s="13"/>
+    <row r="62" spans="1:40" ht="15" customHeight="1">
+      <c r="M62" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="N62" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="O62" s="4"/>
       <c r="P62" s="11" t="str">
         <f t="shared" si="4"/>
@@ -5855,9 +5953,13 @@
       <c r="U62" s="32"/>
       <c r="V62" s="32"/>
     </row>
-    <row r="63" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M63" s="12"/>
-      <c r="N63" s="13"/>
+    <row r="63" spans="1:40" ht="14.25" customHeight="1">
+      <c r="M63" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="N63" s="13" t="s">
+        <v>65</v>
+      </c>
       <c r="O63" s="4"/>
       <c r="P63" s="11" t="str">
         <f t="shared" si="4"/>
@@ -5869,9 +5971,13 @@
       <c r="U63" s="32"/>
       <c r="V63" s="32"/>
     </row>
-    <row r="64" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M64" s="12"/>
-      <c r="N64" s="13"/>
+    <row r="64" spans="1:40" ht="14.25" customHeight="1">
+      <c r="M64" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="N64" s="13" t="s">
+        <v>66</v>
+      </c>
       <c r="O64" s="4"/>
       <c r="P64" s="11" t="str">
         <f t="shared" si="4"/>
@@ -5883,9 +5989,13 @@
       <c r="U64" s="32"/>
       <c r="V64" s="32"/>
     </row>
-    <row r="65" spans="13:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M65" s="12"/>
-      <c r="N65" s="13"/>
+    <row r="65" spans="13:42" ht="14.25" customHeight="1">
+      <c r="M65" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N65" s="13" t="s">
+        <v>67</v>
+      </c>
       <c r="O65" s="4"/>
       <c r="P65" s="11" t="str">
         <f t="shared" si="4"/>
@@ -5897,25 +6007,33 @@
       <c r="U65" s="32"/>
       <c r="V65" s="32"/>
     </row>
-    <row r="66" spans="13:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M66" s="12"/>
-      <c r="N66" s="13"/>
+    <row r="66" spans="13:42" ht="14.25" customHeight="1">
+      <c r="M66" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="N66" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="O66" s="4"/>
       <c r="P66" s="11" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="67" spans="13:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M67" s="12"/>
-      <c r="N67" s="13"/>
+    <row r="67" spans="13:42" ht="14.25" customHeight="1">
+      <c r="M67" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="N67" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="O67" s="4"/>
       <c r="P67" s="11" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="68" spans="13:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="13:42" ht="14.25" customHeight="1">
       <c r="M68" s="12"/>
       <c r="N68" s="13"/>
       <c r="P68" s="11" t="str">
@@ -5923,7 +6041,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="69" spans="13:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="13:42" ht="14.25" customHeight="1">
       <c r="M69" s="12"/>
       <c r="N69" s="13"/>
       <c r="P69" s="11" t="str">
@@ -5931,7 +6049,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="70" spans="13:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="13:42" ht="14.25" customHeight="1">
       <c r="M70" s="12"/>
       <c r="N70" s="13"/>
       <c r="P70" s="11" t="str">
@@ -5939,11 +6057,11 @@
         <v>00</v>
       </c>
     </row>
-    <row r="71" spans="13:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="13:42" ht="14.25" customHeight="1">
       <c r="M71" s="12"/>
       <c r="P71" s="16"/>
     </row>
-    <row r="72" spans="13:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="13:42" ht="14.25" customHeight="1">
       <c r="M72" s="24" t="s">
         <v>31</v>
       </c>
@@ -5952,936 +6070,936 @@
       <c r="P72" s="26"/>
       <c r="AP72" s="2"/>
     </row>
-    <row r="73" spans="13:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="13:42" ht="14.25" customHeight="1">
       <c r="M73" s="27"/>
       <c r="N73" s="28"/>
       <c r="O73" s="28"/>
       <c r="P73" s="29"/>
     </row>
-    <row r="74" spans="13:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" spans="13:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" spans="13:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" spans="13:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" spans="13:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" spans="13:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" spans="13:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" spans="13:42" ht="14.25" customHeight="1"/>
+    <row r="75" spans="13:42" ht="14.25" customHeight="1"/>
+    <row r="76" spans="13:42" ht="14.25" customHeight="1"/>
+    <row r="77" spans="13:42" ht="14.25" customHeight="1"/>
+    <row r="78" spans="13:42" ht="14.25" customHeight="1"/>
+    <row r="79" spans="13:42" ht="14.25" customHeight="1"/>
+    <row r="80" spans="13:42" ht="14.25" customHeight="1"/>
+    <row r="81" ht="14.25" customHeight="1"/>
+    <row r="82" ht="14.25" customHeight="1"/>
+    <row r="83" ht="14.25" customHeight="1"/>
+    <row r="84" ht="14.25" customHeight="1"/>
+    <row r="85" ht="14.25" customHeight="1"/>
+    <row r="86" ht="14.25" customHeight="1"/>
+    <row r="87" ht="14.25" customHeight="1"/>
+    <row r="88" ht="14.25" customHeight="1"/>
+    <row r="89" ht="14.25" customHeight="1"/>
+    <row r="90" ht="14.25" customHeight="1"/>
+    <row r="91" ht="14.25" customHeight="1"/>
+    <row r="92" ht="14.25" customHeight="1"/>
+    <row r="93" ht="14.25" customHeight="1"/>
+    <row r="94" ht="14.25" customHeight="1"/>
+    <row r="95" ht="14.25" customHeight="1"/>
+    <row r="96" ht="14.25" customHeight="1"/>
+    <row r="97" ht="14.25" customHeight="1"/>
+    <row r="98" ht="14.25" customHeight="1"/>
+    <row r="99" ht="14.25" customHeight="1"/>
+    <row r="100" ht="14.25" customHeight="1"/>
+    <row r="101" ht="14.25" customHeight="1"/>
+    <row r="102" ht="14.25" customHeight="1"/>
+    <row r="103" ht="14.25" customHeight="1"/>
+    <row r="104" ht="14.25" customHeight="1"/>
+    <row r="105" ht="14.25" customHeight="1"/>
+    <row r="106" ht="14.25" customHeight="1"/>
+    <row r="107" ht="14.25" customHeight="1"/>
+    <row r="108" ht="14.25" customHeight="1"/>
+    <row r="109" ht="14.25" customHeight="1"/>
+    <row r="110" ht="14.25" customHeight="1"/>
+    <row r="111" ht="14.25" customHeight="1"/>
+    <row r="112" ht="14.25" customHeight="1"/>
+    <row r="113" ht="14.25" customHeight="1"/>
+    <row r="114" ht="14.25" customHeight="1"/>
+    <row r="115" ht="14.25" customHeight="1"/>
+    <row r="116" ht="14.25" customHeight="1"/>
+    <row r="117" ht="14.25" customHeight="1"/>
+    <row r="118" ht="14.25" customHeight="1"/>
+    <row r="119" ht="14.25" customHeight="1"/>
+    <row r="120" ht="14.25" customHeight="1"/>
+    <row r="121" ht="14.25" customHeight="1"/>
+    <row r="122" ht="14.25" customHeight="1"/>
+    <row r="123" ht="14.25" customHeight="1"/>
+    <row r="124" ht="14.25" customHeight="1"/>
+    <row r="125" ht="14.25" customHeight="1"/>
+    <row r="126" ht="14.25" customHeight="1"/>
+    <row r="127" ht="14.25" customHeight="1"/>
+    <row r="128" ht="14.25" customHeight="1"/>
+    <row r="129" ht="14.25" customHeight="1"/>
+    <row r="130" ht="14.25" customHeight="1"/>
+    <row r="131" ht="14.25" customHeight="1"/>
+    <row r="132" ht="14.25" customHeight="1"/>
+    <row r="133" ht="14.25" customHeight="1"/>
+    <row r="134" ht="14.25" customHeight="1"/>
+    <row r="135" ht="14.25" customHeight="1"/>
+    <row r="136" ht="14.25" customHeight="1"/>
+    <row r="137" ht="14.25" customHeight="1"/>
+    <row r="138" ht="14.25" customHeight="1"/>
+    <row r="139" ht="14.25" customHeight="1"/>
+    <row r="140" ht="14.25" customHeight="1"/>
+    <row r="141" ht="14.25" customHeight="1"/>
+    <row r="142" ht="14.25" customHeight="1"/>
+    <row r="143" ht="14.25" customHeight="1"/>
+    <row r="144" ht="14.25" customHeight="1"/>
+    <row r="145" ht="14.25" customHeight="1"/>
+    <row r="146" ht="14.25" customHeight="1"/>
+    <row r="147" ht="14.25" customHeight="1"/>
+    <row r="148" ht="14.25" customHeight="1"/>
+    <row r="149" ht="14.25" customHeight="1"/>
+    <row r="150" ht="14.25" customHeight="1"/>
+    <row r="151" ht="14.25" customHeight="1"/>
+    <row r="152" ht="14.25" customHeight="1"/>
+    <row r="153" ht="14.25" customHeight="1"/>
+    <row r="154" ht="14.25" customHeight="1"/>
+    <row r="155" ht="14.25" customHeight="1"/>
+    <row r="156" ht="14.25" customHeight="1"/>
+    <row r="157" ht="14.25" customHeight="1"/>
+    <row r="158" ht="14.25" customHeight="1"/>
+    <row r="159" ht="14.25" customHeight="1"/>
+    <row r="160" ht="14.25" customHeight="1"/>
+    <row r="161" ht="14.25" customHeight="1"/>
+    <row r="162" ht="14.25" customHeight="1"/>
+    <row r="163" ht="14.25" customHeight="1"/>
+    <row r="164" ht="14.25" customHeight="1"/>
+    <row r="165" ht="14.25" customHeight="1"/>
+    <row r="166" ht="14.25" customHeight="1"/>
+    <row r="167" ht="14.25" customHeight="1"/>
+    <row r="168" ht="14.25" customHeight="1"/>
+    <row r="169" ht="14.25" customHeight="1"/>
+    <row r="170" ht="14.25" customHeight="1"/>
+    <row r="171" ht="14.25" customHeight="1"/>
+    <row r="172" ht="14.25" customHeight="1"/>
+    <row r="173" ht="14.25" customHeight="1"/>
+    <row r="174" ht="14.25" customHeight="1"/>
+    <row r="175" ht="14.25" customHeight="1"/>
+    <row r="176" ht="14.25" customHeight="1"/>
+    <row r="177" ht="14.25" customHeight="1"/>
+    <row r="178" ht="14.25" customHeight="1"/>
+    <row r="179" ht="14.25" customHeight="1"/>
+    <row r="180" ht="14.25" customHeight="1"/>
+    <row r="181" ht="14.25" customHeight="1"/>
+    <row r="182" ht="14.25" customHeight="1"/>
+    <row r="183" ht="14.25" customHeight="1"/>
+    <row r="184" ht="14.25" customHeight="1"/>
+    <row r="185" ht="14.25" customHeight="1"/>
+    <row r="186" ht="14.25" customHeight="1"/>
+    <row r="187" ht="14.25" customHeight="1"/>
+    <row r="188" ht="14.25" customHeight="1"/>
+    <row r="189" ht="14.25" customHeight="1"/>
+    <row r="190" ht="14.25" customHeight="1"/>
+    <row r="191" ht="14.25" customHeight="1"/>
+    <row r="192" ht="14.25" customHeight="1"/>
+    <row r="193" ht="14.25" customHeight="1"/>
+    <row r="194" ht="14.25" customHeight="1"/>
+    <row r="195" ht="14.25" customHeight="1"/>
+    <row r="196" ht="14.25" customHeight="1"/>
+    <row r="197" ht="14.25" customHeight="1"/>
+    <row r="198" ht="14.25" customHeight="1"/>
+    <row r="199" ht="14.25" customHeight="1"/>
+    <row r="200" ht="14.25" customHeight="1"/>
+    <row r="201" ht="14.25" customHeight="1"/>
+    <row r="202" ht="14.25" customHeight="1"/>
+    <row r="203" ht="14.25" customHeight="1"/>
+    <row r="204" ht="14.25" customHeight="1"/>
+    <row r="205" ht="14.25" customHeight="1"/>
+    <row r="206" ht="14.25" customHeight="1"/>
+    <row r="207" ht="14.25" customHeight="1"/>
+    <row r="208" ht="14.25" customHeight="1"/>
+    <row r="209" ht="14.25" customHeight="1"/>
+    <row r="210" ht="14.25" customHeight="1"/>
+    <row r="211" ht="14.25" customHeight="1"/>
+    <row r="212" ht="14.25" customHeight="1"/>
+    <row r="213" ht="14.25" customHeight="1"/>
+    <row r="214" ht="14.25" customHeight="1"/>
+    <row r="215" ht="14.25" customHeight="1"/>
+    <row r="216" ht="14.25" customHeight="1"/>
+    <row r="217" ht="14.25" customHeight="1"/>
+    <row r="218" ht="14.25" customHeight="1"/>
+    <row r="219" ht="14.25" customHeight="1"/>
+    <row r="220" ht="14.25" customHeight="1"/>
+    <row r="221" ht="14.25" customHeight="1"/>
+    <row r="222" ht="14.25" customHeight="1"/>
+    <row r="223" ht="14.25" customHeight="1"/>
+    <row r="224" ht="14.25" customHeight="1"/>
+    <row r="225" ht="14.25" customHeight="1"/>
+    <row r="226" ht="14.25" customHeight="1"/>
+    <row r="227" ht="14.25" customHeight="1"/>
+    <row r="228" ht="14.25" customHeight="1"/>
+    <row r="229" ht="14.25" customHeight="1"/>
+    <row r="230" ht="14.25" customHeight="1"/>
+    <row r="231" ht="14.25" customHeight="1"/>
+    <row r="232" ht="14.25" customHeight="1"/>
+    <row r="233" ht="14.25" customHeight="1"/>
+    <row r="234" ht="14.25" customHeight="1"/>
+    <row r="235" ht="14.25" customHeight="1"/>
+    <row r="236" ht="14.25" customHeight="1"/>
+    <row r="237" ht="14.25" customHeight="1"/>
+    <row r="238" ht="14.25" customHeight="1"/>
+    <row r="239" ht="14.25" customHeight="1"/>
+    <row r="240" ht="14.25" customHeight="1"/>
+    <row r="241" ht="14.25" customHeight="1"/>
+    <row r="242" ht="14.25" customHeight="1"/>
+    <row r="243" ht="14.25" customHeight="1"/>
+    <row r="244" ht="14.25" customHeight="1"/>
+    <row r="245" ht="14.25" customHeight="1"/>
+    <row r="246" ht="14.25" customHeight="1"/>
+    <row r="247" ht="14.25" customHeight="1"/>
+    <row r="248" ht="14.25" customHeight="1"/>
+    <row r="249" ht="14.25" customHeight="1"/>
+    <row r="250" ht="14.25" customHeight="1"/>
+    <row r="251" ht="14.25" customHeight="1"/>
+    <row r="252" ht="14.25" customHeight="1"/>
+    <row r="253" ht="14.25" customHeight="1"/>
+    <row r="254" ht="14.25" customHeight="1"/>
+    <row r="255" ht="14.25" customHeight="1"/>
+    <row r="256" ht="14.25" customHeight="1"/>
+    <row r="257" ht="14.25" customHeight="1"/>
+    <row r="258" ht="14.25" customHeight="1"/>
+    <row r="259" ht="14.25" customHeight="1"/>
+    <row r="260" ht="14.25" customHeight="1"/>
+    <row r="261" ht="14.25" customHeight="1"/>
+    <row r="262" ht="14.25" customHeight="1"/>
+    <row r="263" ht="14.25" customHeight="1"/>
+    <row r="264" ht="14.25" customHeight="1"/>
+    <row r="265" ht="14.25" customHeight="1"/>
+    <row r="266" ht="14.25" customHeight="1"/>
+    <row r="267" ht="14.25" customHeight="1"/>
+    <row r="268" ht="14.25" customHeight="1"/>
+    <row r="269" ht="14.25" customHeight="1"/>
+    <row r="270" ht="14.25" customHeight="1"/>
+    <row r="271" ht="14.25" customHeight="1"/>
+    <row r="272" ht="14.25" customHeight="1"/>
+    <row r="273" ht="14.25" customHeight="1"/>
+    <row r="274" ht="14.25" customHeight="1"/>
+    <row r="275" ht="14.25" customHeight="1"/>
+    <row r="276" ht="14.25" customHeight="1"/>
+    <row r="277" ht="14.25" customHeight="1"/>
+    <row r="278" ht="14.25" customHeight="1"/>
+    <row r="279" ht="14.25" customHeight="1"/>
+    <row r="280" ht="14.25" customHeight="1"/>
+    <row r="281" ht="14.25" customHeight="1"/>
+    <row r="282" ht="14.25" customHeight="1"/>
+    <row r="283" ht="14.25" customHeight="1"/>
+    <row r="284" ht="14.25" customHeight="1"/>
+    <row r="285" ht="14.25" customHeight="1"/>
+    <row r="286" ht="14.25" customHeight="1"/>
+    <row r="287" ht="14.25" customHeight="1"/>
+    <row r="288" ht="14.25" customHeight="1"/>
+    <row r="289" ht="14.25" customHeight="1"/>
+    <row r="290" ht="14.25" customHeight="1"/>
+    <row r="291" ht="14.25" customHeight="1"/>
+    <row r="292" ht="14.25" customHeight="1"/>
+    <row r="293" ht="14.25" customHeight="1"/>
+    <row r="294" ht="14.25" customHeight="1"/>
+    <row r="295" ht="14.25" customHeight="1"/>
+    <row r="296" ht="14.25" customHeight="1"/>
+    <row r="297" ht="14.25" customHeight="1"/>
+    <row r="298" ht="14.25" customHeight="1"/>
+    <row r="299" ht="14.25" customHeight="1"/>
+    <row r="300" ht="14.25" customHeight="1"/>
+    <row r="301" ht="14.25" customHeight="1"/>
+    <row r="302" ht="14.25" customHeight="1"/>
+    <row r="303" ht="14.25" customHeight="1"/>
+    <row r="304" ht="14.25" customHeight="1"/>
+    <row r="305" ht="14.25" customHeight="1"/>
+    <row r="306" ht="14.25" customHeight="1"/>
+    <row r="307" ht="14.25" customHeight="1"/>
+    <row r="308" ht="14.25" customHeight="1"/>
+    <row r="309" ht="14.25" customHeight="1"/>
+    <row r="310" ht="14.25" customHeight="1"/>
+    <row r="311" ht="14.25" customHeight="1"/>
+    <row r="312" ht="14.25" customHeight="1"/>
+    <row r="313" ht="14.25" customHeight="1"/>
+    <row r="314" ht="14.25" customHeight="1"/>
+    <row r="315" ht="14.25" customHeight="1"/>
+    <row r="316" ht="14.25" customHeight="1"/>
+    <row r="317" ht="14.25" customHeight="1"/>
+    <row r="318" ht="14.25" customHeight="1"/>
+    <row r="319" ht="14.25" customHeight="1"/>
+    <row r="320" ht="14.25" customHeight="1"/>
+    <row r="321" ht="14.25" customHeight="1"/>
+    <row r="322" ht="14.25" customHeight="1"/>
+    <row r="323" ht="14.25" customHeight="1"/>
+    <row r="324" ht="14.25" customHeight="1"/>
+    <row r="325" ht="14.25" customHeight="1"/>
+    <row r="326" ht="14.25" customHeight="1"/>
+    <row r="327" ht="14.25" customHeight="1"/>
+    <row r="328" ht="14.25" customHeight="1"/>
+    <row r="329" ht="14.25" customHeight="1"/>
+    <row r="330" ht="14.25" customHeight="1"/>
+    <row r="331" ht="14.25" customHeight="1"/>
+    <row r="332" ht="14.25" customHeight="1"/>
+    <row r="333" ht="14.25" customHeight="1"/>
+    <row r="334" ht="14.25" customHeight="1"/>
+    <row r="335" ht="14.25" customHeight="1"/>
+    <row r="336" ht="14.25" customHeight="1"/>
+    <row r="337" ht="14.25" customHeight="1"/>
+    <row r="338" ht="14.25" customHeight="1"/>
+    <row r="339" ht="14.25" customHeight="1"/>
+    <row r="340" ht="14.25" customHeight="1"/>
+    <row r="341" ht="14.25" customHeight="1"/>
+    <row r="342" ht="14.25" customHeight="1"/>
+    <row r="343" ht="14.25" customHeight="1"/>
+    <row r="344" ht="14.25" customHeight="1"/>
+    <row r="345" ht="14.25" customHeight="1"/>
+    <row r="346" ht="14.25" customHeight="1"/>
+    <row r="347" ht="14.25" customHeight="1"/>
+    <row r="348" ht="14.25" customHeight="1"/>
+    <row r="349" ht="14.25" customHeight="1"/>
+    <row r="350" ht="14.25" customHeight="1"/>
+    <row r="351" ht="14.25" customHeight="1"/>
+    <row r="352" ht="14.25" customHeight="1"/>
+    <row r="353" ht="14.25" customHeight="1"/>
+    <row r="354" ht="14.25" customHeight="1"/>
+    <row r="355" ht="14.25" customHeight="1"/>
+    <row r="356" ht="14.25" customHeight="1"/>
+    <row r="357" ht="14.25" customHeight="1"/>
+    <row r="358" ht="14.25" customHeight="1"/>
+    <row r="359" ht="14.25" customHeight="1"/>
+    <row r="360" ht="14.25" customHeight="1"/>
+    <row r="361" ht="14.25" customHeight="1"/>
+    <row r="362" ht="14.25" customHeight="1"/>
+    <row r="363" ht="14.25" customHeight="1"/>
+    <row r="364" ht="14.25" customHeight="1"/>
+    <row r="365" ht="14.25" customHeight="1"/>
+    <row r="366" ht="14.25" customHeight="1"/>
+    <row r="367" ht="14.25" customHeight="1"/>
+    <row r="368" ht="14.25" customHeight="1"/>
+    <row r="369" ht="14.25" customHeight="1"/>
+    <row r="370" ht="14.25" customHeight="1"/>
+    <row r="371" ht="14.25" customHeight="1"/>
+    <row r="372" ht="14.25" customHeight="1"/>
+    <row r="373" ht="14.25" customHeight="1"/>
+    <row r="374" ht="14.25" customHeight="1"/>
+    <row r="375" ht="14.25" customHeight="1"/>
+    <row r="376" ht="14.25" customHeight="1"/>
+    <row r="377" ht="14.25" customHeight="1"/>
+    <row r="378" ht="14.25" customHeight="1"/>
+    <row r="379" ht="14.25" customHeight="1"/>
+    <row r="380" ht="14.25" customHeight="1"/>
+    <row r="381" ht="14.25" customHeight="1"/>
+    <row r="382" ht="14.25" customHeight="1"/>
+    <row r="383" ht="14.25" customHeight="1"/>
+    <row r="384" ht="14.25" customHeight="1"/>
+    <row r="385" ht="14.25" customHeight="1"/>
+    <row r="386" ht="14.25" customHeight="1"/>
+    <row r="387" ht="14.25" customHeight="1"/>
+    <row r="388" ht="14.25" customHeight="1"/>
+    <row r="389" ht="14.25" customHeight="1"/>
+    <row r="390" ht="14.25" customHeight="1"/>
+    <row r="391" ht="14.25" customHeight="1"/>
+    <row r="392" ht="14.25" customHeight="1"/>
+    <row r="393" ht="14.25" customHeight="1"/>
+    <row r="394" ht="14.25" customHeight="1"/>
+    <row r="395" ht="14.25" customHeight="1"/>
+    <row r="396" ht="14.25" customHeight="1"/>
+    <row r="397" ht="14.25" customHeight="1"/>
+    <row r="398" ht="14.25" customHeight="1"/>
+    <row r="399" ht="14.25" customHeight="1"/>
+    <row r="400" ht="14.25" customHeight="1"/>
+    <row r="401" ht="14.25" customHeight="1"/>
+    <row r="402" ht="14.25" customHeight="1"/>
+    <row r="403" ht="14.25" customHeight="1"/>
+    <row r="404" ht="14.25" customHeight="1"/>
+    <row r="405" ht="14.25" customHeight="1"/>
+    <row r="406" ht="14.25" customHeight="1"/>
+    <row r="407" ht="14.25" customHeight="1"/>
+    <row r="408" ht="14.25" customHeight="1"/>
+    <row r="409" ht="14.25" customHeight="1"/>
+    <row r="410" ht="14.25" customHeight="1"/>
+    <row r="411" ht="14.25" customHeight="1"/>
+    <row r="412" ht="14.25" customHeight="1"/>
+    <row r="413" ht="14.25" customHeight="1"/>
+    <row r="414" ht="14.25" customHeight="1"/>
+    <row r="415" ht="14.25" customHeight="1"/>
+    <row r="416" ht="14.25" customHeight="1"/>
+    <row r="417" ht="14.25" customHeight="1"/>
+    <row r="418" ht="14.25" customHeight="1"/>
+    <row r="419" ht="14.25" customHeight="1"/>
+    <row r="420" ht="14.25" customHeight="1"/>
+    <row r="421" ht="14.25" customHeight="1"/>
+    <row r="422" ht="14.25" customHeight="1"/>
+    <row r="423" ht="14.25" customHeight="1"/>
+    <row r="424" ht="14.25" customHeight="1"/>
+    <row r="425" ht="14.25" customHeight="1"/>
+    <row r="426" ht="14.25" customHeight="1"/>
+    <row r="427" ht="14.25" customHeight="1"/>
+    <row r="428" ht="14.25" customHeight="1"/>
+    <row r="429" ht="14.25" customHeight="1"/>
+    <row r="430" ht="14.25" customHeight="1"/>
+    <row r="431" ht="14.25" customHeight="1"/>
+    <row r="432" ht="14.25" customHeight="1"/>
+    <row r="433" ht="14.25" customHeight="1"/>
+    <row r="434" ht="14.25" customHeight="1"/>
+    <row r="435" ht="14.25" customHeight="1"/>
+    <row r="436" ht="14.25" customHeight="1"/>
+    <row r="437" ht="14.25" customHeight="1"/>
+    <row r="438" ht="14.25" customHeight="1"/>
+    <row r="439" ht="14.25" customHeight="1"/>
+    <row r="440" ht="14.25" customHeight="1"/>
+    <row r="441" ht="14.25" customHeight="1"/>
+    <row r="442" ht="14.25" customHeight="1"/>
+    <row r="443" ht="14.25" customHeight="1"/>
+    <row r="444" ht="14.25" customHeight="1"/>
+    <row r="445" ht="14.25" customHeight="1"/>
+    <row r="446" ht="14.25" customHeight="1"/>
+    <row r="447" ht="14.25" customHeight="1"/>
+    <row r="448" ht="14.25" customHeight="1"/>
+    <row r="449" ht="14.25" customHeight="1"/>
+    <row r="450" ht="14.25" customHeight="1"/>
+    <row r="451" ht="14.25" customHeight="1"/>
+    <row r="452" ht="14.25" customHeight="1"/>
+    <row r="453" ht="14.25" customHeight="1"/>
+    <row r="454" ht="14.25" customHeight="1"/>
+    <row r="455" ht="14.25" customHeight="1"/>
+    <row r="456" ht="14.25" customHeight="1"/>
+    <row r="457" ht="14.25" customHeight="1"/>
+    <row r="458" ht="14.25" customHeight="1"/>
+    <row r="459" ht="14.25" customHeight="1"/>
+    <row r="460" ht="14.25" customHeight="1"/>
+    <row r="461" ht="14.25" customHeight="1"/>
+    <row r="462" ht="14.25" customHeight="1"/>
+    <row r="463" ht="14.25" customHeight="1"/>
+    <row r="464" ht="14.25" customHeight="1"/>
+    <row r="465" ht="14.25" customHeight="1"/>
+    <row r="466" ht="14.25" customHeight="1"/>
+    <row r="467" ht="14.25" customHeight="1"/>
+    <row r="468" ht="14.25" customHeight="1"/>
+    <row r="469" ht="14.25" customHeight="1"/>
+    <row r="470" ht="14.25" customHeight="1"/>
+    <row r="471" ht="14.25" customHeight="1"/>
+    <row r="472" ht="14.25" customHeight="1"/>
+    <row r="473" ht="14.25" customHeight="1"/>
+    <row r="474" ht="14.25" customHeight="1"/>
+    <row r="475" ht="14.25" customHeight="1"/>
+    <row r="476" ht="14.25" customHeight="1"/>
+    <row r="477" ht="14.25" customHeight="1"/>
+    <row r="478" ht="14.25" customHeight="1"/>
+    <row r="479" ht="14.25" customHeight="1"/>
+    <row r="480" ht="14.25" customHeight="1"/>
+    <row r="481" ht="14.25" customHeight="1"/>
+    <row r="482" ht="14.25" customHeight="1"/>
+    <row r="483" ht="14.25" customHeight="1"/>
+    <row r="484" ht="14.25" customHeight="1"/>
+    <row r="485" ht="14.25" customHeight="1"/>
+    <row r="486" ht="14.25" customHeight="1"/>
+    <row r="487" ht="14.25" customHeight="1"/>
+    <row r="488" ht="14.25" customHeight="1"/>
+    <row r="489" ht="14.25" customHeight="1"/>
+    <row r="490" ht="14.25" customHeight="1"/>
+    <row r="491" ht="14.25" customHeight="1"/>
+    <row r="492" ht="14.25" customHeight="1"/>
+    <row r="493" ht="14.25" customHeight="1"/>
+    <row r="494" ht="14.25" customHeight="1"/>
+    <row r="495" ht="14.25" customHeight="1"/>
+    <row r="496" ht="14.25" customHeight="1"/>
+    <row r="497" ht="14.25" customHeight="1"/>
+    <row r="498" ht="14.25" customHeight="1"/>
+    <row r="499" ht="14.25" customHeight="1"/>
+    <row r="500" ht="14.25" customHeight="1"/>
+    <row r="501" ht="14.25" customHeight="1"/>
+    <row r="502" ht="14.25" customHeight="1"/>
+    <row r="503" ht="14.25" customHeight="1"/>
+    <row r="504" ht="14.25" customHeight="1"/>
+    <row r="505" ht="14.25" customHeight="1"/>
+    <row r="506" ht="14.25" customHeight="1"/>
+    <row r="507" ht="14.25" customHeight="1"/>
+    <row r="508" ht="14.25" customHeight="1"/>
+    <row r="509" ht="14.25" customHeight="1"/>
+    <row r="510" ht="14.25" customHeight="1"/>
+    <row r="511" ht="14.25" customHeight="1"/>
+    <row r="512" ht="14.25" customHeight="1"/>
+    <row r="513" ht="14.25" customHeight="1"/>
+    <row r="514" ht="14.25" customHeight="1"/>
+    <row r="515" ht="14.25" customHeight="1"/>
+    <row r="516" ht="14.25" customHeight="1"/>
+    <row r="517" ht="14.25" customHeight="1"/>
+    <row r="518" ht="14.25" customHeight="1"/>
+    <row r="519" ht="14.25" customHeight="1"/>
+    <row r="520" ht="14.25" customHeight="1"/>
+    <row r="521" ht="14.25" customHeight="1"/>
+    <row r="522" ht="14.25" customHeight="1"/>
+    <row r="523" ht="14.25" customHeight="1"/>
+    <row r="524" ht="14.25" customHeight="1"/>
+    <row r="525" ht="14.25" customHeight="1"/>
+    <row r="526" ht="14.25" customHeight="1"/>
+    <row r="527" ht="14.25" customHeight="1"/>
+    <row r="528" ht="14.25" customHeight="1"/>
+    <row r="529" ht="14.25" customHeight="1"/>
+    <row r="530" ht="14.25" customHeight="1"/>
+    <row r="531" ht="14.25" customHeight="1"/>
+    <row r="532" ht="14.25" customHeight="1"/>
+    <row r="533" ht="14.25" customHeight="1"/>
+    <row r="534" ht="14.25" customHeight="1"/>
+    <row r="535" ht="14.25" customHeight="1"/>
+    <row r="536" ht="14.25" customHeight="1"/>
+    <row r="537" ht="14.25" customHeight="1"/>
+    <row r="538" ht="14.25" customHeight="1"/>
+    <row r="539" ht="14.25" customHeight="1"/>
+    <row r="540" ht="14.25" customHeight="1"/>
+    <row r="541" ht="14.25" customHeight="1"/>
+    <row r="542" ht="14.25" customHeight="1"/>
+    <row r="543" ht="14.25" customHeight="1"/>
+    <row r="544" ht="14.25" customHeight="1"/>
+    <row r="545" ht="14.25" customHeight="1"/>
+    <row r="546" ht="14.25" customHeight="1"/>
+    <row r="547" ht="14.25" customHeight="1"/>
+    <row r="548" ht="14.25" customHeight="1"/>
+    <row r="549" ht="14.25" customHeight="1"/>
+    <row r="550" ht="14.25" customHeight="1"/>
+    <row r="551" ht="14.25" customHeight="1"/>
+    <row r="552" ht="14.25" customHeight="1"/>
+    <row r="553" ht="14.25" customHeight="1"/>
+    <row r="554" ht="14.25" customHeight="1"/>
+    <row r="555" ht="14.25" customHeight="1"/>
+    <row r="556" ht="14.25" customHeight="1"/>
+    <row r="557" ht="14.25" customHeight="1"/>
+    <row r="558" ht="14.25" customHeight="1"/>
+    <row r="559" ht="14.25" customHeight="1"/>
+    <row r="560" ht="14.25" customHeight="1"/>
+    <row r="561" ht="14.25" customHeight="1"/>
+    <row r="562" ht="14.25" customHeight="1"/>
+    <row r="563" ht="14.25" customHeight="1"/>
+    <row r="564" ht="14.25" customHeight="1"/>
+    <row r="565" ht="14.25" customHeight="1"/>
+    <row r="566" ht="14.25" customHeight="1"/>
+    <row r="567" ht="14.25" customHeight="1"/>
+    <row r="568" ht="14.25" customHeight="1"/>
+    <row r="569" ht="14.25" customHeight="1"/>
+    <row r="570" ht="14.25" customHeight="1"/>
+    <row r="571" ht="14.25" customHeight="1"/>
+    <row r="572" ht="14.25" customHeight="1"/>
+    <row r="573" ht="14.25" customHeight="1"/>
+    <row r="574" ht="14.25" customHeight="1"/>
+    <row r="575" ht="14.25" customHeight="1"/>
+    <row r="576" ht="14.25" customHeight="1"/>
+    <row r="577" ht="14.25" customHeight="1"/>
+    <row r="578" ht="14.25" customHeight="1"/>
+    <row r="579" ht="14.25" customHeight="1"/>
+    <row r="580" ht="14.25" customHeight="1"/>
+    <row r="581" ht="14.25" customHeight="1"/>
+    <row r="582" ht="14.25" customHeight="1"/>
+    <row r="583" ht="14.25" customHeight="1"/>
+    <row r="584" ht="14.25" customHeight="1"/>
+    <row r="585" ht="14.25" customHeight="1"/>
+    <row r="586" ht="14.25" customHeight="1"/>
+    <row r="587" ht="14.25" customHeight="1"/>
+    <row r="588" ht="14.25" customHeight="1"/>
+    <row r="589" ht="14.25" customHeight="1"/>
+    <row r="590" ht="14.25" customHeight="1"/>
+    <row r="591" ht="14.25" customHeight="1"/>
+    <row r="592" ht="14.25" customHeight="1"/>
+    <row r="593" ht="14.25" customHeight="1"/>
+    <row r="594" ht="14.25" customHeight="1"/>
+    <row r="595" ht="14.25" customHeight="1"/>
+    <row r="596" ht="14.25" customHeight="1"/>
+    <row r="597" ht="14.25" customHeight="1"/>
+    <row r="598" ht="14.25" customHeight="1"/>
+    <row r="599" ht="14.25" customHeight="1"/>
+    <row r="600" ht="14.25" customHeight="1"/>
+    <row r="601" ht="14.25" customHeight="1"/>
+    <row r="602" ht="14.25" customHeight="1"/>
+    <row r="603" ht="14.25" customHeight="1"/>
+    <row r="604" ht="14.25" customHeight="1"/>
+    <row r="605" ht="14.25" customHeight="1"/>
+    <row r="606" ht="14.25" customHeight="1"/>
+    <row r="607" ht="14.25" customHeight="1"/>
+    <row r="608" ht="14.25" customHeight="1"/>
+    <row r="609" ht="14.25" customHeight="1"/>
+    <row r="610" ht="14.25" customHeight="1"/>
+    <row r="611" ht="14.25" customHeight="1"/>
+    <row r="612" ht="14.25" customHeight="1"/>
+    <row r="613" ht="14.25" customHeight="1"/>
+    <row r="614" ht="14.25" customHeight="1"/>
+    <row r="615" ht="14.25" customHeight="1"/>
+    <row r="616" ht="14.25" customHeight="1"/>
+    <row r="617" ht="14.25" customHeight="1"/>
+    <row r="618" ht="14.25" customHeight="1"/>
+    <row r="619" ht="14.25" customHeight="1"/>
+    <row r="620" ht="14.25" customHeight="1"/>
+    <row r="621" ht="14.25" customHeight="1"/>
+    <row r="622" ht="14.25" customHeight="1"/>
+    <row r="623" ht="14.25" customHeight="1"/>
+    <row r="624" ht="14.25" customHeight="1"/>
+    <row r="625" ht="14.25" customHeight="1"/>
+    <row r="626" ht="14.25" customHeight="1"/>
+    <row r="627" ht="14.25" customHeight="1"/>
+    <row r="628" ht="14.25" customHeight="1"/>
+    <row r="629" ht="14.25" customHeight="1"/>
+    <row r="630" ht="14.25" customHeight="1"/>
+    <row r="631" ht="14.25" customHeight="1"/>
+    <row r="632" ht="14.25" customHeight="1"/>
+    <row r="633" ht="14.25" customHeight="1"/>
+    <row r="634" ht="14.25" customHeight="1"/>
+    <row r="635" ht="14.25" customHeight="1"/>
+    <row r="636" ht="14.25" customHeight="1"/>
+    <row r="637" ht="14.25" customHeight="1"/>
+    <row r="638" ht="14.25" customHeight="1"/>
+    <row r="639" ht="14.25" customHeight="1"/>
+    <row r="640" ht="14.25" customHeight="1"/>
+    <row r="641" ht="14.25" customHeight="1"/>
+    <row r="642" ht="14.25" customHeight="1"/>
+    <row r="643" ht="14.25" customHeight="1"/>
+    <row r="644" ht="14.25" customHeight="1"/>
+    <row r="645" ht="14.25" customHeight="1"/>
+    <row r="646" ht="14.25" customHeight="1"/>
+    <row r="647" ht="14.25" customHeight="1"/>
+    <row r="648" ht="14.25" customHeight="1"/>
+    <row r="649" ht="14.25" customHeight="1"/>
+    <row r="650" ht="14.25" customHeight="1"/>
+    <row r="651" ht="14.25" customHeight="1"/>
+    <row r="652" ht="14.25" customHeight="1"/>
+    <row r="653" ht="14.25" customHeight="1"/>
+    <row r="654" ht="14.25" customHeight="1"/>
+    <row r="655" ht="14.25" customHeight="1"/>
+    <row r="656" ht="14.25" customHeight="1"/>
+    <row r="657" ht="14.25" customHeight="1"/>
+    <row r="658" ht="14.25" customHeight="1"/>
+    <row r="659" ht="14.25" customHeight="1"/>
+    <row r="660" ht="14.25" customHeight="1"/>
+    <row r="661" ht="14.25" customHeight="1"/>
+    <row r="662" ht="14.25" customHeight="1"/>
+    <row r="663" ht="14.25" customHeight="1"/>
+    <row r="664" ht="14.25" customHeight="1"/>
+    <row r="665" ht="14.25" customHeight="1"/>
+    <row r="666" ht="14.25" customHeight="1"/>
+    <row r="667" ht="14.25" customHeight="1"/>
+    <row r="668" ht="14.25" customHeight="1"/>
+    <row r="669" ht="14.25" customHeight="1"/>
+    <row r="670" ht="14.25" customHeight="1"/>
+    <row r="671" ht="14.25" customHeight="1"/>
+    <row r="672" ht="14.25" customHeight="1"/>
+    <row r="673" ht="14.25" customHeight="1"/>
+    <row r="674" ht="14.25" customHeight="1"/>
+    <row r="675" ht="14.25" customHeight="1"/>
+    <row r="676" ht="14.25" customHeight="1"/>
+    <row r="677" ht="14.25" customHeight="1"/>
+    <row r="678" ht="14.25" customHeight="1"/>
+    <row r="679" ht="14.25" customHeight="1"/>
+    <row r="680" ht="14.25" customHeight="1"/>
+    <row r="681" ht="14.25" customHeight="1"/>
+    <row r="682" ht="14.25" customHeight="1"/>
+    <row r="683" ht="14.25" customHeight="1"/>
+    <row r="684" ht="14.25" customHeight="1"/>
+    <row r="685" ht="14.25" customHeight="1"/>
+    <row r="686" ht="14.25" customHeight="1"/>
+    <row r="687" ht="14.25" customHeight="1"/>
+    <row r="688" ht="14.25" customHeight="1"/>
+    <row r="689" ht="14.25" customHeight="1"/>
+    <row r="690" ht="14.25" customHeight="1"/>
+    <row r="691" ht="14.25" customHeight="1"/>
+    <row r="692" ht="14.25" customHeight="1"/>
+    <row r="693" ht="14.25" customHeight="1"/>
+    <row r="694" ht="14.25" customHeight="1"/>
+    <row r="695" ht="14.25" customHeight="1"/>
+    <row r="696" ht="14.25" customHeight="1"/>
+    <row r="697" ht="14.25" customHeight="1"/>
+    <row r="698" ht="14.25" customHeight="1"/>
+    <row r="699" ht="14.25" customHeight="1"/>
+    <row r="700" ht="14.25" customHeight="1"/>
+    <row r="701" ht="14.25" customHeight="1"/>
+    <row r="702" ht="14.25" customHeight="1"/>
+    <row r="703" ht="14.25" customHeight="1"/>
+    <row r="704" ht="14.25" customHeight="1"/>
+    <row r="705" ht="14.25" customHeight="1"/>
+    <row r="706" ht="14.25" customHeight="1"/>
+    <row r="707" ht="14.25" customHeight="1"/>
+    <row r="708" ht="14.25" customHeight="1"/>
+    <row r="709" ht="14.25" customHeight="1"/>
+    <row r="710" ht="14.25" customHeight="1"/>
+    <row r="711" ht="14.25" customHeight="1"/>
+    <row r="712" ht="14.25" customHeight="1"/>
+    <row r="713" ht="14.25" customHeight="1"/>
+    <row r="714" ht="14.25" customHeight="1"/>
+    <row r="715" ht="14.25" customHeight="1"/>
+    <row r="716" ht="14.25" customHeight="1"/>
+    <row r="717" ht="14.25" customHeight="1"/>
+    <row r="718" ht="14.25" customHeight="1"/>
+    <row r="719" ht="14.25" customHeight="1"/>
+    <row r="720" ht="14.25" customHeight="1"/>
+    <row r="721" ht="14.25" customHeight="1"/>
+    <row r="722" ht="14.25" customHeight="1"/>
+    <row r="723" ht="14.25" customHeight="1"/>
+    <row r="724" ht="14.25" customHeight="1"/>
+    <row r="725" ht="14.25" customHeight="1"/>
+    <row r="726" ht="14.25" customHeight="1"/>
+    <row r="727" ht="14.25" customHeight="1"/>
+    <row r="728" ht="14.25" customHeight="1"/>
+    <row r="729" ht="14.25" customHeight="1"/>
+    <row r="730" ht="14.25" customHeight="1"/>
+    <row r="731" ht="14.25" customHeight="1"/>
+    <row r="732" ht="14.25" customHeight="1"/>
+    <row r="733" ht="14.25" customHeight="1"/>
+    <row r="734" ht="14.25" customHeight="1"/>
+    <row r="735" ht="14.25" customHeight="1"/>
+    <row r="736" ht="14.25" customHeight="1"/>
+    <row r="737" ht="14.25" customHeight="1"/>
+    <row r="738" ht="14.25" customHeight="1"/>
+    <row r="739" ht="14.25" customHeight="1"/>
+    <row r="740" ht="14.25" customHeight="1"/>
+    <row r="741" ht="14.25" customHeight="1"/>
+    <row r="742" ht="14.25" customHeight="1"/>
+    <row r="743" ht="14.25" customHeight="1"/>
+    <row r="744" ht="14.25" customHeight="1"/>
+    <row r="745" ht="14.25" customHeight="1"/>
+    <row r="746" ht="14.25" customHeight="1"/>
+    <row r="747" ht="14.25" customHeight="1"/>
+    <row r="748" ht="14.25" customHeight="1"/>
+    <row r="749" ht="14.25" customHeight="1"/>
+    <row r="750" ht="14.25" customHeight="1"/>
+    <row r="751" ht="14.25" customHeight="1"/>
+    <row r="752" ht="14.25" customHeight="1"/>
+    <row r="753" ht="14.25" customHeight="1"/>
+    <row r="754" ht="14.25" customHeight="1"/>
+    <row r="755" ht="14.25" customHeight="1"/>
+    <row r="756" ht="14.25" customHeight="1"/>
+    <row r="757" ht="14.25" customHeight="1"/>
+    <row r="758" ht="14.25" customHeight="1"/>
+    <row r="759" ht="14.25" customHeight="1"/>
+    <row r="760" ht="14.25" customHeight="1"/>
+    <row r="761" ht="14.25" customHeight="1"/>
+    <row r="762" ht="14.25" customHeight="1"/>
+    <row r="763" ht="14.25" customHeight="1"/>
+    <row r="764" ht="14.25" customHeight="1"/>
+    <row r="765" ht="14.25" customHeight="1"/>
+    <row r="766" ht="14.25" customHeight="1"/>
+    <row r="767" ht="14.25" customHeight="1"/>
+    <row r="768" ht="14.25" customHeight="1"/>
+    <row r="769" ht="14.25" customHeight="1"/>
+    <row r="770" ht="14.25" customHeight="1"/>
+    <row r="771" ht="14.25" customHeight="1"/>
+    <row r="772" ht="14.25" customHeight="1"/>
+    <row r="773" ht="14.25" customHeight="1"/>
+    <row r="774" ht="14.25" customHeight="1"/>
+    <row r="775" ht="14.25" customHeight="1"/>
+    <row r="776" ht="14.25" customHeight="1"/>
+    <row r="777" ht="14.25" customHeight="1"/>
+    <row r="778" ht="14.25" customHeight="1"/>
+    <row r="779" ht="14.25" customHeight="1"/>
+    <row r="780" ht="14.25" customHeight="1"/>
+    <row r="781" ht="14.25" customHeight="1"/>
+    <row r="782" ht="14.25" customHeight="1"/>
+    <row r="783" ht="14.25" customHeight="1"/>
+    <row r="784" ht="14.25" customHeight="1"/>
+    <row r="785" ht="14.25" customHeight="1"/>
+    <row r="786" ht="14.25" customHeight="1"/>
+    <row r="787" ht="14.25" customHeight="1"/>
+    <row r="788" ht="14.25" customHeight="1"/>
+    <row r="789" ht="14.25" customHeight="1"/>
+    <row r="790" ht="14.25" customHeight="1"/>
+    <row r="791" ht="14.25" customHeight="1"/>
+    <row r="792" ht="14.25" customHeight="1"/>
+    <row r="793" ht="14.25" customHeight="1"/>
+    <row r="794" ht="14.25" customHeight="1"/>
+    <row r="795" ht="14.25" customHeight="1"/>
+    <row r="796" ht="14.25" customHeight="1"/>
+    <row r="797" ht="14.25" customHeight="1"/>
+    <row r="798" ht="14.25" customHeight="1"/>
+    <row r="799" ht="14.25" customHeight="1"/>
+    <row r="800" ht="14.25" customHeight="1"/>
+    <row r="801" ht="14.25" customHeight="1"/>
+    <row r="802" ht="14.25" customHeight="1"/>
+    <row r="803" ht="14.25" customHeight="1"/>
+    <row r="804" ht="14.25" customHeight="1"/>
+    <row r="805" ht="14.25" customHeight="1"/>
+    <row r="806" ht="14.25" customHeight="1"/>
+    <row r="807" ht="14.25" customHeight="1"/>
+    <row r="808" ht="14.25" customHeight="1"/>
+    <row r="809" ht="14.25" customHeight="1"/>
+    <row r="810" ht="14.25" customHeight="1"/>
+    <row r="811" ht="14.25" customHeight="1"/>
+    <row r="812" ht="14.25" customHeight="1"/>
+    <row r="813" ht="14.25" customHeight="1"/>
+    <row r="814" ht="14.25" customHeight="1"/>
+    <row r="815" ht="14.25" customHeight="1"/>
+    <row r="816" ht="14.25" customHeight="1"/>
+    <row r="817" ht="14.25" customHeight="1"/>
+    <row r="818" ht="14.25" customHeight="1"/>
+    <row r="819" ht="14.25" customHeight="1"/>
+    <row r="820" ht="14.25" customHeight="1"/>
+    <row r="821" ht="14.25" customHeight="1"/>
+    <row r="822" ht="14.25" customHeight="1"/>
+    <row r="823" ht="14.25" customHeight="1"/>
+    <row r="824" ht="14.25" customHeight="1"/>
+    <row r="825" ht="14.25" customHeight="1"/>
+    <row r="826" ht="14.25" customHeight="1"/>
+    <row r="827" ht="14.25" customHeight="1"/>
+    <row r="828" ht="14.25" customHeight="1"/>
+    <row r="829" ht="14.25" customHeight="1"/>
+    <row r="830" ht="14.25" customHeight="1"/>
+    <row r="831" ht="14.25" customHeight="1"/>
+    <row r="832" ht="14.25" customHeight="1"/>
+    <row r="833" ht="14.25" customHeight="1"/>
+    <row r="834" ht="14.25" customHeight="1"/>
+    <row r="835" ht="14.25" customHeight="1"/>
+    <row r="836" ht="14.25" customHeight="1"/>
+    <row r="837" ht="14.25" customHeight="1"/>
+    <row r="838" ht="14.25" customHeight="1"/>
+    <row r="839" ht="14.25" customHeight="1"/>
+    <row r="840" ht="14.25" customHeight="1"/>
+    <row r="841" ht="14.25" customHeight="1"/>
+    <row r="842" ht="14.25" customHeight="1"/>
+    <row r="843" ht="14.25" customHeight="1"/>
+    <row r="844" ht="14.25" customHeight="1"/>
+    <row r="845" ht="14.25" customHeight="1"/>
+    <row r="846" ht="14.25" customHeight="1"/>
+    <row r="847" ht="14.25" customHeight="1"/>
+    <row r="848" ht="14.25" customHeight="1"/>
+    <row r="849" ht="14.25" customHeight="1"/>
+    <row r="850" ht="14.25" customHeight="1"/>
+    <row r="851" ht="14.25" customHeight="1"/>
+    <row r="852" ht="14.25" customHeight="1"/>
+    <row r="853" ht="14.25" customHeight="1"/>
+    <row r="854" ht="14.25" customHeight="1"/>
+    <row r="855" ht="14.25" customHeight="1"/>
+    <row r="856" ht="14.25" customHeight="1"/>
+    <row r="857" ht="14.25" customHeight="1"/>
+    <row r="858" ht="14.25" customHeight="1"/>
+    <row r="859" ht="14.25" customHeight="1"/>
+    <row r="860" ht="14.25" customHeight="1"/>
+    <row r="861" ht="14.25" customHeight="1"/>
+    <row r="862" ht="14.25" customHeight="1"/>
+    <row r="863" ht="14.25" customHeight="1"/>
+    <row r="864" ht="14.25" customHeight="1"/>
+    <row r="865" ht="14.25" customHeight="1"/>
+    <row r="866" ht="14.25" customHeight="1"/>
+    <row r="867" ht="14.25" customHeight="1"/>
+    <row r="868" ht="14.25" customHeight="1"/>
+    <row r="869" ht="14.25" customHeight="1"/>
+    <row r="870" ht="14.25" customHeight="1"/>
+    <row r="871" ht="14.25" customHeight="1"/>
+    <row r="872" ht="14.25" customHeight="1"/>
+    <row r="873" ht="14.25" customHeight="1"/>
+    <row r="874" ht="14.25" customHeight="1"/>
+    <row r="875" ht="14.25" customHeight="1"/>
+    <row r="876" ht="14.25" customHeight="1"/>
+    <row r="877" ht="14.25" customHeight="1"/>
+    <row r="878" ht="14.25" customHeight="1"/>
+    <row r="879" ht="14.25" customHeight="1"/>
+    <row r="880" ht="14.25" customHeight="1"/>
+    <row r="881" ht="14.25" customHeight="1"/>
+    <row r="882" ht="14.25" customHeight="1"/>
+    <row r="883" ht="14.25" customHeight="1"/>
+    <row r="884" ht="14.25" customHeight="1"/>
+    <row r="885" ht="14.25" customHeight="1"/>
+    <row r="886" ht="14.25" customHeight="1"/>
+    <row r="887" ht="14.25" customHeight="1"/>
+    <row r="888" ht="14.25" customHeight="1"/>
+    <row r="889" ht="14.25" customHeight="1"/>
+    <row r="890" ht="14.25" customHeight="1"/>
+    <row r="891" ht="14.25" customHeight="1"/>
+    <row r="892" ht="14.25" customHeight="1"/>
+    <row r="893" ht="14.25" customHeight="1"/>
+    <row r="894" ht="14.25" customHeight="1"/>
+    <row r="895" ht="14.25" customHeight="1"/>
+    <row r="896" ht="14.25" customHeight="1"/>
+    <row r="897" ht="14.25" customHeight="1"/>
+    <row r="898" ht="14.25" customHeight="1"/>
+    <row r="899" ht="14.25" customHeight="1"/>
+    <row r="900" ht="14.25" customHeight="1"/>
+    <row r="901" ht="14.25" customHeight="1"/>
+    <row r="902" ht="14.25" customHeight="1"/>
+    <row r="903" ht="14.25" customHeight="1"/>
+    <row r="904" ht="14.25" customHeight="1"/>
+    <row r="905" ht="14.25" customHeight="1"/>
+    <row r="906" ht="14.25" customHeight="1"/>
+    <row r="907" ht="14.25" customHeight="1"/>
+    <row r="908" ht="14.25" customHeight="1"/>
+    <row r="909" ht="14.25" customHeight="1"/>
+    <row r="910" ht="14.25" customHeight="1"/>
+    <row r="911" ht="14.25" customHeight="1"/>
+    <row r="912" ht="14.25" customHeight="1"/>
+    <row r="913" ht="14.25" customHeight="1"/>
+    <row r="914" ht="14.25" customHeight="1"/>
+    <row r="915" ht="14.25" customHeight="1"/>
+    <row r="916" ht="14.25" customHeight="1"/>
+    <row r="917" ht="14.25" customHeight="1"/>
+    <row r="918" ht="14.25" customHeight="1"/>
+    <row r="919" ht="14.25" customHeight="1"/>
+    <row r="920" ht="14.25" customHeight="1"/>
+    <row r="921" ht="14.25" customHeight="1"/>
+    <row r="922" ht="14.25" customHeight="1"/>
+    <row r="923" ht="14.25" customHeight="1"/>
+    <row r="924" ht="14.25" customHeight="1"/>
+    <row r="925" ht="14.25" customHeight="1"/>
+    <row r="926" ht="14.25" customHeight="1"/>
+    <row r="927" ht="14.25" customHeight="1"/>
+    <row r="928" ht="14.25" customHeight="1"/>
+    <row r="929" ht="14.25" customHeight="1"/>
+    <row r="930" ht="14.25" customHeight="1"/>
+    <row r="931" ht="14.25" customHeight="1"/>
+    <row r="932" ht="14.25" customHeight="1"/>
+    <row r="933" ht="14.25" customHeight="1"/>
+    <row r="934" ht="14.25" customHeight="1"/>
+    <row r="935" ht="14.25" customHeight="1"/>
+    <row r="936" ht="14.25" customHeight="1"/>
+    <row r="937" ht="14.25" customHeight="1"/>
+    <row r="938" ht="14.25" customHeight="1"/>
+    <row r="939" ht="14.25" customHeight="1"/>
+    <row r="940" ht="14.25" customHeight="1"/>
+    <row r="941" ht="14.25" customHeight="1"/>
+    <row r="942" ht="14.25" customHeight="1"/>
+    <row r="943" ht="14.25" customHeight="1"/>
+    <row r="944" ht="14.25" customHeight="1"/>
+    <row r="945" ht="14.25" customHeight="1"/>
+    <row r="946" ht="14.25" customHeight="1"/>
+    <row r="947" ht="14.25" customHeight="1"/>
+    <row r="948" ht="14.25" customHeight="1"/>
+    <row r="949" ht="14.25" customHeight="1"/>
+    <row r="950" ht="14.25" customHeight="1"/>
+    <row r="951" ht="14.25" customHeight="1"/>
+    <row r="952" ht="14.25" customHeight="1"/>
+    <row r="953" ht="14.25" customHeight="1"/>
+    <row r="954" ht="14.25" customHeight="1"/>
+    <row r="955" ht="14.25" customHeight="1"/>
+    <row r="956" ht="14.25" customHeight="1"/>
+    <row r="957" ht="14.25" customHeight="1"/>
+    <row r="958" ht="14.25" customHeight="1"/>
+    <row r="959" ht="14.25" customHeight="1"/>
+    <row r="960" ht="14.25" customHeight="1"/>
+    <row r="961" ht="14.25" customHeight="1"/>
+    <row r="962" ht="14.25" customHeight="1"/>
+    <row r="963" ht="14.25" customHeight="1"/>
+    <row r="964" ht="14.25" customHeight="1"/>
+    <row r="965" ht="14.25" customHeight="1"/>
+    <row r="966" ht="14.25" customHeight="1"/>
+    <row r="967" ht="14.25" customHeight="1"/>
+    <row r="968" ht="14.25" customHeight="1"/>
+    <row r="969" ht="14.25" customHeight="1"/>
+    <row r="970" ht="14.25" customHeight="1"/>
+    <row r="971" ht="14.25" customHeight="1"/>
+    <row r="972" ht="14.25" customHeight="1"/>
+    <row r="973" ht="14.25" customHeight="1"/>
+    <row r="974" ht="14.25" customHeight="1"/>
+    <row r="975" ht="14.25" customHeight="1"/>
+    <row r="976" ht="14.25" customHeight="1"/>
+    <row r="977" ht="14.25" customHeight="1"/>
+    <row r="978" ht="14.25" customHeight="1"/>
+    <row r="979" ht="14.25" customHeight="1"/>
+    <row r="980" ht="14.25" customHeight="1"/>
+    <row r="981" ht="14.25" customHeight="1"/>
+    <row r="982" ht="14.25" customHeight="1"/>
+    <row r="983" ht="14.25" customHeight="1"/>
+    <row r="984" ht="14.25" customHeight="1"/>
+    <row r="985" ht="14.25" customHeight="1"/>
+    <row r="986" ht="14.25" customHeight="1"/>
+    <row r="987" ht="14.25" customHeight="1"/>
+    <row r="988" ht="14.25" customHeight="1"/>
+    <row r="989" ht="14.25" customHeight="1"/>
+    <row r="990" ht="14.25" customHeight="1"/>
+    <row r="991" ht="14.25" customHeight="1"/>
+    <row r="992" ht="14.25" customHeight="1"/>
+    <row r="993" ht="14.25" customHeight="1"/>
+    <row r="994" ht="14.25" customHeight="1"/>
+    <row r="995" ht="14.25" customHeight="1"/>
+    <row r="996" ht="14.25" customHeight="1"/>
+    <row r="997" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="M72:P73"/>
@@ -6895,31 +7013,15 @@
     <mergeCell ref="M53:P53"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
-  <conditionalFormatting sqref="J49:AC49 AC2:AC41 AC45:AC48">
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+  <conditionalFormatting sqref="C2:H49">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:H49">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:AB48 N2:AB2">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:M2">
+  <conditionalFormatting sqref="J2:AB48">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -6927,12 +7029,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:H2">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="AC2:AC41 AC45:AC48 J49:AC49">
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/projects/cs2200-project-1/microcode/microcode.xlsx
+++ b/projects/cs2200-project-1/microcode/microcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruh\Documents\GT\Fall 2023\CS_2200\projects\cs2200-project-1\microcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9C16C7-1693-4ABF-8E42-5A1A0CEB7F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0601B6-958F-49D3-80E4-93055523C34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="109">
   <si>
     <t>Index</t>
   </si>
@@ -215,12 +215,6 @@
     <t>11</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>0000</t>
   </si>
   <si>
@@ -303,6 +297,123 @@
   </si>
   <si>
     <t>add3</t>
+  </si>
+  <si>
+    <t>nand1</t>
+  </si>
+  <si>
+    <t>nand2</t>
+  </si>
+  <si>
+    <t>nand3</t>
+  </si>
+  <si>
+    <t>addi1</t>
+  </si>
+  <si>
+    <t>addi2</t>
+  </si>
+  <si>
+    <t>addi3</t>
+  </si>
+  <si>
+    <t>lw1</t>
+  </si>
+  <si>
+    <t>lw2</t>
+  </si>
+  <si>
+    <t>lw3</t>
+  </si>
+  <si>
+    <t>lw4</t>
+  </si>
+  <si>
+    <t>sw1</t>
+  </si>
+  <si>
+    <t>sw2</t>
+  </si>
+  <si>
+    <t>sw3</t>
+  </si>
+  <si>
+    <t>sw4</t>
+  </si>
+  <si>
+    <t>beq1</t>
+  </si>
+  <si>
+    <t>beq2</t>
+  </si>
+  <si>
+    <t>beq3</t>
+  </si>
+  <si>
+    <t>beq4</t>
+  </si>
+  <si>
+    <t>beq5</t>
+  </si>
+  <si>
+    <t>beq6</t>
+  </si>
+  <si>
+    <t>jalr1</t>
+  </si>
+  <si>
+    <t>jalr2</t>
+  </si>
+  <si>
+    <t>halt</t>
+  </si>
+  <si>
+    <t>blt1</t>
+  </si>
+  <si>
+    <t>blt2</t>
+  </si>
+  <si>
+    <t>blt3</t>
+  </si>
+  <si>
+    <t>blt4</t>
+  </si>
+  <si>
+    <t>lea1</t>
+  </si>
+  <si>
+    <t>lea2</t>
+  </si>
+  <si>
+    <t>lea3</t>
+  </si>
+  <si>
+    <t>bgt1</t>
+  </si>
+  <si>
+    <t>bgt2</t>
+  </si>
+  <si>
+    <t>bgt3</t>
+  </si>
+  <si>
+    <t>bgt4</t>
+  </si>
+  <si>
+    <t>or1</t>
+  </si>
+  <si>
+    <t>or2</t>
+  </si>
+  <si>
+    <t>or3</t>
+  </si>
+  <si>
+    <t>000001</t>
+  </si>
+  <si>
+    <t>000000</t>
   </si>
 </sst>
 </file>
@@ -560,7 +671,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -667,6 +778,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -934,9 +1052,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP997"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V9" sqref="V9"/>
+      <selection pane="bottomLeft" activeCell="AG2" sqref="AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -1057,7 +1175,7 @@
       <c r="AP1" s="1"/>
     </row>
     <row r="2" spans="1:42" ht="14.25" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" s="40">
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -1153,7 +1271,7 @@
       </c>
     </row>
     <row r="3" spans="1:42" ht="14.25" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="40">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1249,7 +1367,7 @@
       </c>
     </row>
     <row r="4" spans="1:42" ht="14.25" customHeight="1">
-      <c r="A4" s="4">
+      <c r="A4" s="40">
         <v>2</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -1259,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -1275,7 +1393,7 @@
       </c>
       <c r="I4" s="5">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
@@ -1341,16 +1459,16 @@
       <c r="AE4" s="4"/>
       <c r="AF4" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>1C01110</v>
+        <v>1C01100</v>
       </c>
     </row>
-    <row r="5" spans="1:42" ht="14.25" customHeight="1">
-      <c r="A5" s="4">
+    <row r="5" spans="1:42" ht="13.8" customHeight="1">
+      <c r="A5" s="40">
         <f t="shared" ref="A5:A49" si="3">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -1417,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="X5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="2">
         <v>0</v>
@@ -1438,16 +1556,16 @@
       <c r="AE5" s="4"/>
       <c r="AF5" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0208044</v>
+        <v>0108044</v>
       </c>
     </row>
     <row r="6" spans="1:42" ht="14.25" customHeight="1">
-      <c r="A6" s="4">
+      <c r="A6" s="40">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
@@ -1514,10 +1632,10 @@
         <v>0</v>
       </c>
       <c r="X6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6" s="2">
         <v>0</v>
@@ -1535,16 +1653,16 @@
       <c r="AE6" s="4"/>
       <c r="AF6" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0110045</v>
+        <v>0210045</v>
       </c>
     </row>
     <row r="7" spans="1:42" ht="14.25" customHeight="1">
-      <c r="A7" s="4">
+      <c r="A7" s="40">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -1636,11 +1754,13 @@
       </c>
     </row>
     <row r="8" spans="1:42" ht="14.25" customHeight="1">
-      <c r="A8" s="4">
+      <c r="A8" s="40">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="C8" s="2">
         <v>0</v>
       </c>
@@ -1651,20 +1771,20 @@
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>
@@ -1691,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="S8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="2">
         <v>0</v>
@@ -1706,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="X8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="2">
         <v>0</v>
@@ -1727,15 +1847,17 @@
       <c r="AE8" s="4"/>
       <c r="AF8" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0000000</v>
+        <v>0108047</v>
       </c>
     </row>
     <row r="9" spans="1:42" ht="14.25" customHeight="1">
-      <c r="A9" s="4">
+      <c r="A9" s="40">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="C9" s="2">
         <v>0</v>
       </c>
@@ -1743,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2">
         <v>0</v>
@@ -1756,10 +1878,10 @@
       </c>
       <c r="I9" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
@@ -1789,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
@@ -1804,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="Y9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9" s="2">
         <v>0</v>
@@ -1822,15 +1944,17 @@
       <c r="AE9" s="4"/>
       <c r="AF9" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0000000</v>
+        <v>0210048</v>
       </c>
     </row>
     <row r="10" spans="1:42" ht="14.25" customHeight="1">
-      <c r="A10" s="4">
+      <c r="A10" s="40">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="C10" s="2">
         <v>0</v>
       </c>
@@ -1860,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="2">
         <v>0</v>
@@ -1890,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="V10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10" s="2">
         <v>0</v>
@@ -1905,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10" s="2">
         <v>0</v>
@@ -1917,7 +2041,7 @@
       <c r="AE10" s="4"/>
       <c r="AF10" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0000000</v>
+        <v>0840100</v>
       </c>
     </row>
     <row r="11" spans="1:42" ht="14.25" customHeight="1">
@@ -1925,7 +2049,9 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="C11" s="2">
         <v>0</v>
       </c>
@@ -1933,20 +2059,20 @@
         <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
       </c>
       <c r="G11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
       </c>
       <c r="I11" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J11" s="2">
         <v>0</v>
@@ -1964,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" s="2">
         <v>0</v>
@@ -1976,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="S11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" s="2">
         <v>0</v>
@@ -2012,7 +2138,7 @@
       <c r="AE11" s="4"/>
       <c r="AF11" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0000000</v>
+        <v>000880A</v>
       </c>
     </row>
     <row r="12" spans="1:42" ht="14.25" customHeight="1">
@@ -2020,7 +2146,9 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="C12" s="2">
         <v>0</v>
       </c>
@@ -2028,23 +2156,23 @@
         <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
       </c>
       <c r="G12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
@@ -2074,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
@@ -2086,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="X12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12" s="2">
         <v>0</v>
@@ -2107,7 +2235,7 @@
       <c r="AE12" s="4"/>
       <c r="AF12" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0000000</v>
+        <v>011004B</v>
       </c>
     </row>
     <row r="13" spans="1:42" ht="14.25" customHeight="1">
@@ -2115,7 +2243,9 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="C13" s="2">
         <v>0</v>
       </c>
@@ -2145,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
@@ -2175,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="V13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13" s="2">
         <v>0</v>
@@ -2202,7 +2332,7 @@
       <c r="AE13" s="4"/>
       <c r="AF13" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0000000</v>
+        <v>0040100</v>
       </c>
     </row>
     <row r="14" spans="1:42" ht="14.25" customHeight="1">
@@ -2210,7 +2340,9 @@
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="C14" s="2">
         <v>0</v>
       </c>
@@ -2218,20 +2350,20 @@
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="2">
         <v>0</v>
       </c>
       <c r="H14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J14" s="2">
         <v>0</v>
@@ -2249,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="2">
         <v>0</v>
@@ -2261,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="S14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="2">
         <v>0</v>
@@ -2297,7 +2429,7 @@
       <c r="AE14" s="4"/>
       <c r="AF14" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0000000</v>
+        <v>000880D</v>
       </c>
     </row>
     <row r="15" spans="1:42" ht="14.25" customHeight="1">
@@ -2305,7 +2437,9 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="C15" s="2">
         <v>0</v>
       </c>
@@ -2313,23 +2447,23 @@
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
       </c>
       <c r="I15" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
@@ -2359,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
@@ -2371,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="X15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="2">
         <v>0</v>
@@ -2392,7 +2526,7 @@
       <c r="AE15" s="4"/>
       <c r="AF15" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0000000</v>
+        <v>011004E</v>
       </c>
     </row>
     <row r="16" spans="1:42" ht="14.25" customHeight="1">
@@ -2400,7 +2534,9 @@
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="C16" s="2">
         <v>0</v>
       </c>
@@ -2408,20 +2544,20 @@
         <v>0</v>
       </c>
       <c r="E16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J16" s="2">
         <v>0</v>
@@ -2430,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="2">
         <v>0</v>
@@ -2448,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" s="2">
         <v>0</v>
@@ -2487,7 +2623,7 @@
       <c r="AE16" s="4"/>
       <c r="AF16" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0000000</v>
+        <v>000410F</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="14.25" customHeight="1">
@@ -2495,7 +2631,9 @@
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="C17" s="2">
         <v>0</v>
       </c>
@@ -2522,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="2">
         <v>0</v>
@@ -2555,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="V17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17" s="2">
         <v>0</v>
@@ -2582,7 +2720,7 @@
       <c r="AE17" s="4"/>
       <c r="AF17" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0000000</v>
+        <v>0040080</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="14.25" customHeight="1">
@@ -2590,12 +2728,14 @@
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="C18" s="2">
         <v>0</v>
       </c>
       <c r="D18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
@@ -2607,11 +2747,11 @@
         <v>0</v>
       </c>
       <c r="H18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J18" s="2">
         <v>0</v>
@@ -2629,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="2">
         <v>0</v>
@@ -2641,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="S18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="2">
         <v>0</v>
@@ -2677,7 +2817,7 @@
       <c r="AE18" s="4"/>
       <c r="AF18" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0000000</v>
+        <v>0008811</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="14.25" customHeight="1">
@@ -2685,12 +2825,14 @@
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="C19" s="2">
         <v>0</v>
       </c>
       <c r="D19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -2699,17 +2841,17 @@
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
       </c>
       <c r="I19" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="2">
         <v>0</v>
@@ -2739,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
@@ -2751,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="X19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19" s="2">
         <v>0</v>
@@ -2772,7 +2914,7 @@
       <c r="AE19" s="4"/>
       <c r="AF19" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0000000</v>
+        <v>0110052</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="14.25" customHeight="1">
@@ -2780,12 +2922,14 @@
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="C20" s="2">
         <v>0</v>
       </c>
       <c r="D20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
@@ -2794,14 +2938,14 @@
         <v>0</v>
       </c>
       <c r="G20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J20" s="2">
         <v>0</v>
@@ -2810,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="2">
         <v>0</v>
@@ -2828,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20" s="2">
         <v>0</v>
@@ -2867,15 +3011,17 @@
       <c r="AE20" s="4"/>
       <c r="AF20" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0000000</v>
+        <v>0004113</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="14.25" customHeight="1">
+    <row r="21" spans="1:32" ht="13.8" customHeight="1">
       <c r="A21" s="4">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="C21" s="2">
         <v>0</v>
       </c>
@@ -2899,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="2">
         <v>0</v>
@@ -2938,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21" s="2">
         <v>0</v>
@@ -2962,577 +3108,589 @@
       <c r="AE21" s="4"/>
       <c r="AF21" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0000000</v>
+        <v>0080040</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A22" s="4">
+      <c r="A22" s="40">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0</v>
+      <c r="B22" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="41">
+        <v>0</v>
+      </c>
+      <c r="D22" s="41">
+        <v>1</v>
+      </c>
+      <c r="E22" s="41">
+        <v>0</v>
+      </c>
+      <c r="F22" s="41">
+        <v>1</v>
+      </c>
+      <c r="G22" s="41">
+        <v>0</v>
+      </c>
+      <c r="H22" s="41">
+        <v>1</v>
       </c>
       <c r="I22" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="2">
-        <v>0</v>
-      </c>
-      <c r="K22" s="2">
-        <v>0</v>
-      </c>
-      <c r="L22" s="2">
-        <v>0</v>
-      </c>
-      <c r="M22" s="2">
-        <v>0</v>
-      </c>
-      <c r="N22" s="2">
-        <v>0</v>
-      </c>
-      <c r="O22" s="2">
-        <v>0</v>
-      </c>
-      <c r="P22" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>0</v>
-      </c>
-      <c r="R22" s="2">
-        <v>0</v>
-      </c>
-      <c r="S22" s="2">
-        <v>0</v>
-      </c>
-      <c r="T22" s="2">
-        <v>0</v>
-      </c>
-      <c r="U22" s="2">
-        <v>0</v>
-      </c>
-      <c r="V22" s="2">
-        <v>0</v>
-      </c>
-      <c r="W22" s="2">
-        <v>0</v>
-      </c>
-      <c r="X22" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="J22" s="41">
+        <v>1</v>
+      </c>
+      <c r="K22" s="41">
+        <v>0</v>
+      </c>
+      <c r="L22" s="41">
+        <v>0</v>
+      </c>
+      <c r="M22" s="41">
+        <v>0</v>
+      </c>
+      <c r="N22" s="41">
+        <v>0</v>
+      </c>
+      <c r="O22" s="41">
+        <v>0</v>
+      </c>
+      <c r="P22" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="41">
+        <v>0</v>
+      </c>
+      <c r="R22" s="41">
+        <v>0</v>
+      </c>
+      <c r="S22" s="41">
+        <v>1</v>
+      </c>
+      <c r="T22" s="41">
+        <v>0</v>
+      </c>
+      <c r="U22" s="41">
+        <v>0</v>
+      </c>
+      <c r="V22" s="41">
+        <v>0</v>
+      </c>
+      <c r="W22" s="41">
+        <v>0</v>
+      </c>
+      <c r="X22" s="41">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="41">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="41">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="41">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="41">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="42">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="40"/>
       <c r="AE22" s="4"/>
       <c r="AF22" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0000000</v>
+        <v>0008055</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A23" s="4">
+      <c r="A23" s="40">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2">
+      <c r="B23" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="41">
+        <v>0</v>
+      </c>
+      <c r="D23" s="41">
+        <v>1</v>
+      </c>
+      <c r="E23" s="41">
+        <v>0</v>
+      </c>
+      <c r="F23" s="41">
+        <v>1</v>
+      </c>
+      <c r="G23" s="41">
+        <v>1</v>
+      </c>
+      <c r="H23" s="41">
         <v>0</v>
       </c>
       <c r="I23" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="2">
-        <v>0</v>
-      </c>
-      <c r="K23" s="2">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2">
-        <v>0</v>
-      </c>
-      <c r="M23" s="2">
-        <v>0</v>
-      </c>
-      <c r="N23" s="2">
-        <v>0</v>
-      </c>
-      <c r="O23" s="2">
-        <v>0</v>
-      </c>
-      <c r="P23" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>0</v>
-      </c>
-      <c r="R23" s="2">
-        <v>0</v>
-      </c>
-      <c r="S23" s="2">
-        <v>0</v>
-      </c>
-      <c r="T23" s="2">
-        <v>0</v>
-      </c>
-      <c r="U23" s="2">
-        <v>0</v>
-      </c>
-      <c r="V23" s="2">
-        <v>0</v>
-      </c>
-      <c r="W23" s="2">
-        <v>0</v>
-      </c>
-      <c r="X23" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="J23" s="41">
+        <v>1</v>
+      </c>
+      <c r="K23" s="41">
+        <v>0</v>
+      </c>
+      <c r="L23" s="41">
+        <v>0</v>
+      </c>
+      <c r="M23" s="41">
+        <v>0</v>
+      </c>
+      <c r="N23" s="41">
+        <v>0</v>
+      </c>
+      <c r="O23" s="41">
+        <v>0</v>
+      </c>
+      <c r="P23" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="41">
+        <v>0</v>
+      </c>
+      <c r="R23" s="41">
+        <v>0</v>
+      </c>
+      <c r="S23" s="41">
+        <v>0</v>
+      </c>
+      <c r="T23" s="41">
+        <v>1</v>
+      </c>
+      <c r="U23" s="41">
+        <v>0</v>
+      </c>
+      <c r="V23" s="41">
+        <v>0</v>
+      </c>
+      <c r="W23" s="41">
+        <v>0</v>
+      </c>
+      <c r="X23" s="41">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="41">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="41">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="41">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="41">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="42">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="40"/>
       <c r="AE23" s="4"/>
       <c r="AF23" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0000000</v>
+        <v>0110056</v>
       </c>
     </row>
     <row r="24" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A24" s="4">
+      <c r="A24" s="40">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0</v>
-      </c>
-      <c r="G24" s="2">
-        <v>0</v>
-      </c>
-      <c r="H24" s="2">
-        <v>0</v>
+      <c r="B24" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="41">
+        <v>0</v>
+      </c>
+      <c r="D24" s="41">
+        <v>1</v>
+      </c>
+      <c r="E24" s="41">
+        <v>0</v>
+      </c>
+      <c r="F24" s="41">
+        <v>1</v>
+      </c>
+      <c r="G24" s="41">
+        <v>1</v>
+      </c>
+      <c r="H24" s="41">
+        <v>1</v>
       </c>
       <c r="I24" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="2">
-        <v>0</v>
-      </c>
-      <c r="K24" s="2">
-        <v>0</v>
-      </c>
-      <c r="L24" s="2">
-        <v>0</v>
-      </c>
-      <c r="M24" s="2">
-        <v>0</v>
-      </c>
-      <c r="N24" s="2">
-        <v>0</v>
-      </c>
-      <c r="O24" s="2">
-        <v>0</v>
-      </c>
-      <c r="P24" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>0</v>
-      </c>
-      <c r="R24" s="2">
-        <v>0</v>
-      </c>
-      <c r="S24" s="2">
-        <v>0</v>
-      </c>
-      <c r="T24" s="2">
-        <v>0</v>
-      </c>
-      <c r="U24" s="2">
-        <v>0</v>
-      </c>
-      <c r="V24" s="2">
-        <v>0</v>
-      </c>
-      <c r="W24" s="2">
-        <v>0</v>
-      </c>
-      <c r="X24" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="J24" s="41">
+        <v>0</v>
+      </c>
+      <c r="K24" s="41">
+        <v>0</v>
+      </c>
+      <c r="L24" s="41">
+        <v>1</v>
+      </c>
+      <c r="M24" s="41">
+        <v>0</v>
+      </c>
+      <c r="N24" s="41">
+        <v>0</v>
+      </c>
+      <c r="O24" s="41">
+        <v>0</v>
+      </c>
+      <c r="P24" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="41">
+        <v>0</v>
+      </c>
+      <c r="R24" s="41">
+        <v>0</v>
+      </c>
+      <c r="S24" s="41">
+        <v>0</v>
+      </c>
+      <c r="T24" s="41">
+        <v>0</v>
+      </c>
+      <c r="U24" s="41">
+        <v>1</v>
+      </c>
+      <c r="V24" s="41">
+        <v>0</v>
+      </c>
+      <c r="W24" s="41">
+        <v>0</v>
+      </c>
+      <c r="X24" s="41">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="41">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="41">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="41">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="41">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="42">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="40"/>
       <c r="AE24" s="4"/>
       <c r="AF24" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0000000</v>
+        <v>2420117</v>
       </c>
     </row>
     <row r="25" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A25" s="4">
+      <c r="A25" s="40">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2">
-        <v>0</v>
-      </c>
-      <c r="H25" s="2">
+      <c r="B25" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="41">
+        <v>0</v>
+      </c>
+      <c r="D25" s="41">
+        <v>1</v>
+      </c>
+      <c r="E25" s="41">
+        <v>1</v>
+      </c>
+      <c r="F25" s="41">
+        <v>0</v>
+      </c>
+      <c r="G25" s="41">
+        <v>0</v>
+      </c>
+      <c r="H25" s="41">
         <v>0</v>
       </c>
       <c r="I25" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="2">
-        <v>0</v>
-      </c>
-      <c r="K25" s="2">
-        <v>0</v>
-      </c>
-      <c r="L25" s="2">
-        <v>0</v>
-      </c>
-      <c r="M25" s="2">
-        <v>0</v>
-      </c>
-      <c r="N25" s="2">
-        <v>0</v>
-      </c>
-      <c r="O25" s="2">
-        <v>0</v>
-      </c>
-      <c r="P25" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="2">
-        <v>0</v>
-      </c>
-      <c r="R25" s="2">
-        <v>0</v>
-      </c>
-      <c r="S25" s="2">
-        <v>0</v>
-      </c>
-      <c r="T25" s="2">
-        <v>0</v>
-      </c>
-      <c r="U25" s="2">
-        <v>0</v>
-      </c>
-      <c r="V25" s="2">
-        <v>0</v>
-      </c>
-      <c r="W25" s="2">
-        <v>0</v>
-      </c>
-      <c r="X25" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="J25" s="41">
+        <v>0</v>
+      </c>
+      <c r="K25" s="41">
+        <v>0</v>
+      </c>
+      <c r="L25" s="41">
+        <v>0</v>
+      </c>
+      <c r="M25" s="41">
+        <v>0</v>
+      </c>
+      <c r="N25" s="41">
+        <v>1</v>
+      </c>
+      <c r="O25" s="41">
+        <v>0</v>
+      </c>
+      <c r="P25" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="41">
+        <v>0</v>
+      </c>
+      <c r="R25" s="41">
+        <v>0</v>
+      </c>
+      <c r="S25" s="41">
+        <v>1</v>
+      </c>
+      <c r="T25" s="41">
+        <v>0</v>
+      </c>
+      <c r="U25" s="41">
+        <v>0</v>
+      </c>
+      <c r="V25" s="41">
+        <v>0</v>
+      </c>
+      <c r="W25" s="41">
+        <v>0</v>
+      </c>
+      <c r="X25" s="41">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="41">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="41">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="41">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="41">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="42">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="40"/>
       <c r="AE25" s="4"/>
       <c r="AF25" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0000000</v>
+        <v>0008418</v>
       </c>
     </row>
     <row r="26" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A26" s="4">
+      <c r="A26" s="40">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2">
-        <v>0</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0</v>
-      </c>
-      <c r="G26" s="2">
-        <v>0</v>
-      </c>
-      <c r="H26" s="2">
-        <v>0</v>
+      <c r="B26" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="41">
+        <v>0</v>
+      </c>
+      <c r="D26" s="41">
+        <v>1</v>
+      </c>
+      <c r="E26" s="41">
+        <v>1</v>
+      </c>
+      <c r="F26" s="41">
+        <v>0</v>
+      </c>
+      <c r="G26" s="41">
+        <v>0</v>
+      </c>
+      <c r="H26" s="41">
+        <v>1</v>
       </c>
       <c r="I26" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="2">
-        <v>0</v>
-      </c>
-      <c r="K26" s="2">
-        <v>0</v>
-      </c>
-      <c r="L26" s="2">
-        <v>0</v>
-      </c>
-      <c r="M26" s="2">
-        <v>0</v>
-      </c>
-      <c r="N26" s="2">
-        <v>0</v>
-      </c>
-      <c r="O26" s="2">
-        <v>0</v>
-      </c>
-      <c r="P26" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="2">
-        <v>0</v>
-      </c>
-      <c r="R26" s="2">
-        <v>0</v>
-      </c>
-      <c r="S26" s="2">
-        <v>0</v>
-      </c>
-      <c r="T26" s="2">
-        <v>0</v>
-      </c>
-      <c r="U26" s="2">
-        <v>0</v>
-      </c>
-      <c r="V26" s="2">
-        <v>0</v>
-      </c>
-      <c r="W26" s="2">
-        <v>0</v>
-      </c>
-      <c r="X26" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="J26" s="41">
+        <v>0</v>
+      </c>
+      <c r="K26" s="41">
+        <v>0</v>
+      </c>
+      <c r="L26" s="41">
+        <v>0</v>
+      </c>
+      <c r="M26" s="41">
+        <v>0</v>
+      </c>
+      <c r="N26" s="41">
+        <v>0</v>
+      </c>
+      <c r="O26" s="41">
+        <v>1</v>
+      </c>
+      <c r="P26" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="41">
+        <v>0</v>
+      </c>
+      <c r="R26" s="41">
+        <v>0</v>
+      </c>
+      <c r="S26" s="41">
+        <v>0</v>
+      </c>
+      <c r="T26" s="41">
+        <v>1</v>
+      </c>
+      <c r="U26" s="41">
+        <v>0</v>
+      </c>
+      <c r="V26" s="41">
+        <v>0</v>
+      </c>
+      <c r="W26" s="41">
+        <v>0</v>
+      </c>
+      <c r="X26" s="41">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="41">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="41">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="41">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="41">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="42">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="40"/>
       <c r="AE26" s="4"/>
       <c r="AF26" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0000000</v>
+        <v>0010819</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A27" s="4">
+      <c r="A27" s="40">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2">
-        <v>0</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0</v>
-      </c>
-      <c r="H27" s="2">
+      <c r="B27" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="41">
+        <v>0</v>
+      </c>
+      <c r="D27" s="41">
+        <v>0</v>
+      </c>
+      <c r="E27" s="41">
+        <v>0</v>
+      </c>
+      <c r="F27" s="41">
+        <v>0</v>
+      </c>
+      <c r="G27" s="41">
+        <v>0</v>
+      </c>
+      <c r="H27" s="41">
         <v>0</v>
       </c>
       <c r="I27" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J27" s="2">
-        <v>0</v>
-      </c>
-      <c r="K27" s="2">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2">
-        <v>0</v>
-      </c>
-      <c r="M27" s="2">
-        <v>0</v>
-      </c>
-      <c r="N27" s="2">
-        <v>0</v>
-      </c>
-      <c r="O27" s="2">
-        <v>0</v>
-      </c>
-      <c r="P27" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="2">
-        <v>0</v>
-      </c>
-      <c r="R27" s="2">
-        <v>0</v>
-      </c>
-      <c r="S27" s="2">
-        <v>0</v>
-      </c>
-      <c r="T27" s="2">
-        <v>0</v>
-      </c>
-      <c r="U27" s="2">
-        <v>0</v>
-      </c>
-      <c r="V27" s="2">
-        <v>0</v>
-      </c>
-      <c r="W27" s="2">
-        <v>0</v>
-      </c>
-      <c r="X27" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="4"/>
+      <c r="J27" s="41">
+        <v>0</v>
+      </c>
+      <c r="K27" s="41">
+        <v>0</v>
+      </c>
+      <c r="L27" s="41">
+        <v>0</v>
+      </c>
+      <c r="M27" s="41">
+        <v>1</v>
+      </c>
+      <c r="N27" s="41">
+        <v>0</v>
+      </c>
+      <c r="O27" s="41">
+        <v>0</v>
+      </c>
+      <c r="P27" s="41">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="41">
+        <v>0</v>
+      </c>
+      <c r="R27" s="41">
+        <v>0</v>
+      </c>
+      <c r="S27" s="41">
+        <v>0</v>
+      </c>
+      <c r="T27" s="41">
+        <v>0</v>
+      </c>
+      <c r="U27" s="41">
+        <v>0</v>
+      </c>
+      <c r="V27" s="41">
+        <v>0</v>
+      </c>
+      <c r="W27" s="41">
+        <v>0</v>
+      </c>
+      <c r="X27" s="41">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="41">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="41">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="41">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="41">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="41">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="40"/>
       <c r="AE27" s="4"/>
       <c r="AF27" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0000000</v>
+        <v>0001200</v>
       </c>
     </row>
     <row r="28" spans="1:32" ht="14.25" customHeight="1">
@@ -3540,28 +3698,30 @@
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="B28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="C28" s="2">
         <v>0</v>
       </c>
       <c r="D28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="2">
         <v>0</v>
       </c>
       <c r="G28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J28" s="2">
         <v>0</v>
@@ -3576,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="N28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" s="2">
         <v>0</v>
@@ -3600,13 +3760,13 @@
         <v>0</v>
       </c>
       <c r="V28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="2">
         <v>0</v>
       </c>
       <c r="X28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y28" s="2">
         <v>0</v>
@@ -3627,7 +3787,7 @@
       <c r="AE28" s="4"/>
       <c r="AF28" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0000000</v>
+        <v>014041B</v>
       </c>
     </row>
     <row r="29" spans="1:32" ht="14.25" customHeight="1">
@@ -3635,7 +3795,9 @@
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="B29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="C29" s="2">
         <v>0</v>
       </c>
@@ -3659,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="2">
         <v>0</v>
@@ -3677,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="2">
         <v>0</v>
@@ -3722,7 +3884,7 @@
       <c r="AE29" s="4"/>
       <c r="AF29" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0000000</v>
+        <v>0001040</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="14.25" customHeight="1">
@@ -3730,18 +3892,20 @@
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="C30" s="2">
         <v>0</v>
       </c>
       <c r="D30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="2">
         <v>0</v>
@@ -3751,7 +3915,7 @@
       </c>
       <c r="I30" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J30" s="2">
         <v>0</v>
@@ -3817,7 +3981,7 @@
       <c r="AE30" s="4"/>
       <c r="AF30" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0000000</v>
+        <v>000001C</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="14.25" customHeight="1">
@@ -3825,31 +3989,33 @@
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="C31" s="2">
         <v>0</v>
       </c>
       <c r="D31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
       </c>
       <c r="I31" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="2">
         <v>0</v>
@@ -3876,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="S31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" s="2">
         <v>0</v>
@@ -3912,7 +4078,7 @@
       <c r="AE31" s="4"/>
       <c r="AF31" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0000000</v>
+        <v>000805E</v>
       </c>
     </row>
     <row r="32" spans="1:32" ht="14.25" customHeight="1">
@@ -3920,31 +4086,33 @@
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="C32" s="2">
         <v>0</v>
       </c>
       <c r="D32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="2">
         <v>0</v>
@@ -3974,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U32" s="2">
         <v>0</v>
@@ -4007,7 +4175,7 @@
       <c r="AE32" s="4"/>
       <c r="AF32" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0000000</v>
+        <v>001005F</v>
       </c>
     </row>
     <row r="33" spans="1:33" ht="14.25" customHeight="1">
@@ -4015,9 +4183,11 @@
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="B33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="C33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
@@ -4036,7 +4206,7 @@
       </c>
       <c r="I33" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J33" s="2">
         <v>0</v>
@@ -4045,7 +4215,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" s="2">
         <v>0</v>
@@ -4072,7 +4242,7 @@
         <v>0</v>
       </c>
       <c r="U33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V33" s="2">
         <v>0</v>
@@ -4087,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="Z33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA33" s="2">
         <v>0</v>
@@ -4102,7 +4272,7 @@
       <c r="AE33" s="4"/>
       <c r="AF33" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0000000</v>
+        <v>0420120</v>
       </c>
     </row>
     <row r="34" spans="1:33" ht="14.25" customHeight="1">
@@ -4110,7 +4280,9 @@
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="B34" s="2"/>
+      <c r="B34" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="C34" s="2">
         <v>0</v>
       </c>
@@ -4191,13 +4363,13 @@
         <v>0</v>
       </c>
       <c r="AC34" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD34" s="4"/>
       <c r="AE34" s="4"/>
       <c r="AF34" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="35" spans="1:33" ht="14.25" customHeight="1">
@@ -4205,9 +4377,11 @@
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="B35" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="C35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" s="2">
         <v>0</v>
@@ -4219,14 +4393,14 @@
         <v>0</v>
       </c>
       <c r="G35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
       </c>
       <c r="I35" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J35" s="2">
         <v>0</v>
@@ -4244,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" s="2">
         <v>0</v>
@@ -4256,7 +4430,7 @@
         <v>0</v>
       </c>
       <c r="S35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35" s="2">
         <v>0</v>
@@ -4292,7 +4466,7 @@
       <c r="AE35" s="4"/>
       <c r="AF35" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0000000</v>
+        <v>0008822</v>
       </c>
     </row>
     <row r="36" spans="1:33" ht="14.25" customHeight="1">
@@ -4300,9 +4474,11 @@
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="B36" s="2"/>
+      <c r="B36" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="C36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="2">
         <v>0</v>
@@ -4314,14 +4490,14 @@
         <v>0</v>
       </c>
       <c r="G36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J36" s="2">
         <v>0</v>
@@ -4336,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="N36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" s="2">
         <v>0</v>
@@ -4354,7 +4530,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U36" s="2">
         <v>0</v>
@@ -4387,7 +4563,7 @@
       <c r="AE36" s="4"/>
       <c r="AF36" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0000000</v>
+        <v>0010423</v>
       </c>
     </row>
     <row r="37" spans="1:33" ht="14.25" customHeight="1">
@@ -4395,7 +4571,9 @@
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="B37" s="2"/>
+      <c r="B37" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="C37" s="2">
         <v>0</v>
       </c>
@@ -4425,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" s="2">
         <v>0</v>
@@ -4455,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="V37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="2">
         <v>0</v>
@@ -4482,7 +4660,7 @@
       <c r="AE37" s="4"/>
       <c r="AF37" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0000000</v>
+        <v>0040100</v>
       </c>
     </row>
     <row r="38" spans="1:33" ht="14.25" customHeight="1">
@@ -4490,9 +4668,11 @@
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="B38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="C38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="2">
         <v>0</v>
@@ -4501,20 +4681,20 @@
         <v>0</v>
       </c>
       <c r="F38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" s="2">
         <v>0</v>
       </c>
       <c r="H38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="2">
         <v>0</v>
@@ -4544,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="T38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38" s="2">
         <v>0</v>
@@ -4570,14 +4750,14 @@
       <c r="AB38" s="2">
         <v>0</v>
       </c>
-      <c r="AC38" s="18">
+      <c r="AC38" s="20">
         <v>0</v>
       </c>
       <c r="AD38" s="4"/>
       <c r="AE38" s="4"/>
       <c r="AF38" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0000000</v>
+        <v>0010065</v>
       </c>
     </row>
     <row r="39" spans="1:33" ht="14.25" customHeight="1">
@@ -4585,9 +4765,11 @@
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="B39" s="2"/>
+      <c r="B39" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="C39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="2">
         <v>0</v>
@@ -4596,20 +4778,20 @@
         <v>0</v>
       </c>
       <c r="F39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
       </c>
       <c r="I39" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="2">
         <v>0</v>
@@ -4636,7 +4818,7 @@
         <v>0</v>
       </c>
       <c r="S39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39" s="2">
         <v>0</v>
@@ -4672,7 +4854,7 @@
       <c r="AE39" s="4"/>
       <c r="AF39" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0000000</v>
+        <v>0008066</v>
       </c>
       <c r="AG39" s="4" t="s">
         <v>21</v>
@@ -4683,9 +4865,11 @@
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="B40" s="2"/>
+      <c r="B40" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="C40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="2">
         <v>0</v>
@@ -4694,17 +4878,17 @@
         <v>0</v>
       </c>
       <c r="F40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="J40" s="2">
         <v>0</v>
@@ -4713,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" s="2">
         <v>0</v>
@@ -4740,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="U40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V40" s="2">
         <v>0</v>
@@ -4755,7 +4939,7 @@
         <v>0</v>
       </c>
       <c r="Z40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA40" s="2">
         <v>0</v>
@@ -4770,7 +4954,7 @@
       <c r="AE40" s="4"/>
       <c r="AF40" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0000000</v>
+        <v>0420127</v>
       </c>
     </row>
     <row r="41" spans="1:33" ht="14.25" customHeight="1">
@@ -4778,7 +4962,9 @@
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="B41" s="2"/>
+      <c r="B41" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="C41" s="2">
         <v>0</v>
       </c>
@@ -4858,14 +5044,14 @@
       <c r="AB41" s="2">
         <v>0</v>
       </c>
-      <c r="AC41" s="2">
-        <v>0</v>
+      <c r="AC41" s="18">
+        <v>1</v>
       </c>
       <c r="AD41" s="4"/>
       <c r="AE41" s="4"/>
       <c r="AF41" s="7" t="str">
         <f>_xlfn.CONCAT(     BIN2HEX(_xlfn.CONCAT(AC41, AB41),1),     BIN2HEX(_xlfn.CONCAT(AA41,Z41,Y41, X41),1),     BIN2HEX(_xlfn.CONCAT(W41,V41,U41, T41),1),     BIN2HEX(_xlfn.CONCAT(S41,R41,Q41, P41),1),     BIN2HEX(_xlfn.CONCAT(O41,N41, M41, L41),1),     BIN2HEX(_xlfn.CONCAT(K41,J41,C41,D41),1),     BIN2HEX(_xlfn.CONCAT(E41,F41,G41,H41),1) )</f>
-        <v>0000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="42" spans="1:33" ht="14.25" customHeight="1">
@@ -4873,15 +5059,17 @@
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="B42" s="2"/>
+      <c r="B42" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="C42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="2">
         <v>0</v>
       </c>
       <c r="E42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="2">
         <v>0</v>
@@ -4890,14 +5078,14 @@
         <v>0</v>
       </c>
       <c r="H42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="J42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="2">
         <v>0</v>
@@ -4924,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="S42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T42" s="2">
         <v>0</v>
@@ -4939,7 +5127,7 @@
         <v>0</v>
       </c>
       <c r="X42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y42" s="2">
         <v>0</v>
@@ -4960,7 +5148,7 @@
       <c r="AE42" s="4"/>
       <c r="AF42" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0000000</v>
+        <v>0108069</v>
       </c>
     </row>
     <row r="43" spans="1:33" ht="14.25" customHeight="1">
@@ -4968,31 +5156,33 @@
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="B43" s="2"/>
+      <c r="B43" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="C43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="2">
         <v>0</v>
       </c>
       <c r="E43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" s="2">
         <v>0</v>
       </c>
       <c r="G43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
       </c>
       <c r="I43" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="J43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="2">
         <v>0</v>
@@ -5022,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="T43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U43" s="2">
         <v>0</v>
@@ -5037,7 +5227,7 @@
         <v>0</v>
       </c>
       <c r="Y43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z43" s="2">
         <v>0</v>
@@ -5055,7 +5245,7 @@
       <c r="AE43" s="4"/>
       <c r="AF43" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0000000</v>
+        <v>021006A</v>
       </c>
     </row>
     <row r="44" spans="1:33" ht="14.25" customHeight="1">
@@ -5063,7 +5253,9 @@
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="B44" s="2"/>
+      <c r="B44" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="C44" s="2">
         <v>0</v>
       </c>
@@ -5096,7 +5288,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44" s="2">
         <v>0</v>
@@ -5123,7 +5315,7 @@
         <v>0</v>
       </c>
       <c r="V44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W44" s="2">
         <v>0</v>
@@ -5150,7 +5342,7 @@
       <c r="AE44" s="4"/>
       <c r="AF44" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>0000000</v>
+        <v>0040200</v>
       </c>
     </row>
     <row r="45" spans="1:33" ht="14.25" customHeight="1">
@@ -5736,7 +5928,7 @@
     </row>
     <row r="55" spans="1:40" ht="14.25" customHeight="1">
       <c r="B55" s="21" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="C55" s="36" t="s">
         <v>40</v>
@@ -5752,10 +5944,10 @@
         <v>0</v>
       </c>
       <c r="M55" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N55" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O55" s="4">
         <v>3</v>
@@ -5790,7 +5982,7 @@
     </row>
     <row r="56" spans="1:40" ht="14.25" customHeight="1">
       <c r="B56" s="22" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="C56" s="30" t="s">
         <v>41</v>
@@ -5806,15 +5998,17 @@
         <v>B</v>
       </c>
       <c r="M56" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N56" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="O56" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="O56" s="4">
+        <v>6</v>
+      </c>
       <c r="P56" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>00</v>
+        <v>06</v>
       </c>
       <c r="R56" s="31"/>
       <c r="S56" s="31"/>
@@ -5842,15 +6036,17 @@
     </row>
     <row r="57" spans="1:40" ht="14.25" customHeight="1">
       <c r="M57" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N57" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="O57" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="O57" s="4">
+        <v>9</v>
+      </c>
       <c r="P57" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>00</v>
+        <v>09</v>
       </c>
       <c r="R57" s="31"/>
       <c r="S57" s="31"/>
@@ -5864,15 +6060,17 @@
     </row>
     <row r="58" spans="1:40" ht="14.25" customHeight="1">
       <c r="M58" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N58" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="O58" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="O58" s="4">
+        <v>12</v>
+      </c>
       <c r="P58" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>00</v>
+        <v>0C</v>
       </c>
       <c r="R58" s="31"/>
       <c r="S58" s="31"/>
@@ -5886,28 +6084,32 @@
     </row>
     <row r="59" spans="1:40" ht="14.25" customHeight="1">
       <c r="M59" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N59" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="O59" s="4"/>
+        <v>59</v>
+      </c>
+      <c r="O59" s="4">
+        <v>16</v>
+      </c>
       <c r="P59" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>00</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:40" ht="14.25" customHeight="1">
       <c r="M60" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N60" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="O60" s="4"/>
+        <v>60</v>
+      </c>
+      <c r="O60" s="4">
+        <v>20</v>
+      </c>
       <c r="P60" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>00</v>
+        <v>14</v>
       </c>
       <c r="R60" s="32" t="s">
         <v>30</v>
@@ -5919,15 +6121,17 @@
     </row>
     <row r="61" spans="1:40" ht="14.25" customHeight="1">
       <c r="M61" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N61" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="O61" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="O61" s="4">
+        <v>26</v>
+      </c>
       <c r="P61" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>00</v>
+        <v>1A</v>
       </c>
       <c r="R61" s="32"/>
       <c r="S61" s="32"/>
@@ -5937,15 +6141,17 @@
     </row>
     <row r="62" spans="1:40" ht="15" customHeight="1">
       <c r="M62" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N62" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="O62" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="O62" s="4">
+        <v>28</v>
+      </c>
       <c r="P62" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>00</v>
+        <v>1C</v>
       </c>
       <c r="R62" s="32"/>
       <c r="S62" s="32"/>
@@ -5955,15 +6161,17 @@
     </row>
     <row r="63" spans="1:40" ht="14.25" customHeight="1">
       <c r="M63" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N63" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="O63" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="O63" s="4">
+        <v>29</v>
+      </c>
       <c r="P63" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>00</v>
+        <v>1D</v>
       </c>
       <c r="R63" s="32"/>
       <c r="S63" s="32"/>
@@ -5973,15 +6181,17 @@
     </row>
     <row r="64" spans="1:40" ht="14.25" customHeight="1">
       <c r="M64" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N64" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="O64" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="O64" s="4">
+        <v>33</v>
+      </c>
       <c r="P64" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>00</v>
+        <v>21</v>
       </c>
       <c r="R64" s="32"/>
       <c r="S64" s="32"/>
@@ -5991,15 +6201,17 @@
     </row>
     <row r="65" spans="13:42" ht="14.25" customHeight="1">
       <c r="M65" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N65" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="O65" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="O65" s="4">
+        <v>36</v>
+      </c>
       <c r="P65" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>00</v>
+        <v>24</v>
       </c>
       <c r="R65" s="32"/>
       <c r="S65" s="32"/>
@@ -6009,28 +6221,32 @@
     </row>
     <row r="66" spans="13:42" ht="14.25" customHeight="1">
       <c r="M66" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N66" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="N66" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="O66" s="4"/>
+      <c r="O66" s="4">
+        <v>40</v>
+      </c>
       <c r="P66" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>00</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="13:42" ht="14.25" customHeight="1">
       <c r="M67" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N67" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="O67" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="O67" s="4">
+        <v>40</v>
+      </c>
       <c r="P67" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>00</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="13:42" ht="14.25" customHeight="1">
@@ -7029,7 +7245,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC2:AC41 AC45:AC48 J49:AC49">
+  <conditionalFormatting sqref="AC45:AC48 J49:AC49 AC2:AC41">
     <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
